--- a/nurlita2.xlsx
+++ b/nurlita2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E26211E-2B22-44CA-9D75-0B35DB7E20E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CC397CC-D549-4A09-B24A-E885D4B01F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="97">
   <si>
     <t>Collector</t>
   </si>
@@ -67,231 +67,228 @@
     <t>s1</t>
   </si>
   <si>
-    <t>93,678,790.00</t>
+    <t>96,120,980.00</t>
   </si>
   <si>
     <t>432,505,627.00</t>
   </si>
   <si>
-    <t>21.66</t>
-  </si>
-  <si>
-    <t>15.37</t>
-  </si>
-  <si>
-    <t>13.98</t>
+    <t>22.22</t>
+  </si>
+  <si>
+    <t>15.51</t>
+  </si>
+  <si>
+    <t>14.14</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>92,246,508.00</t>
+    <t>92,759,216.00</t>
   </si>
   <si>
     <t>459,484,927.00</t>
   </si>
   <si>
-    <t>20.08</t>
-  </si>
-  <si>
-    <t>13.51</t>
-  </si>
-  <si>
-    <t>14.35</t>
+    <t>20.19</t>
+  </si>
+  <si>
+    <t>13.60</t>
+  </si>
+  <si>
+    <t>14.51</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>103,180,603.00</t>
+    <t>105,848,945.00</t>
   </si>
   <si>
     <t>458,559,789.00</t>
   </si>
   <si>
-    <t>22.50</t>
-  </si>
-  <si>
-    <t>13.73</t>
-  </si>
-  <si>
-    <t>14.42</t>
+    <t>23.08</t>
+  </si>
+  <si>
+    <t>14.12</t>
+  </si>
+  <si>
+    <t>14.89</t>
+  </si>
+  <si>
+    <t>20.42</t>
+  </si>
+  <si>
+    <t>Shofa Khairunnisa</t>
+  </si>
+  <si>
+    <t>88,689,435.00</t>
+  </si>
+  <si>
+    <t>434,358,087.00</t>
+  </si>
+  <si>
+    <t>14.53</t>
+  </si>
+  <si>
+    <t>13.19</t>
+  </si>
+  <si>
+    <t>Febri Fransiska</t>
+  </si>
+  <si>
+    <t>90,916,372.00</t>
+  </si>
+  <si>
+    <t>480,021,338.00</t>
+  </si>
+  <si>
+    <t>18.94</t>
+  </si>
+  <si>
+    <t>10.95</t>
+  </si>
+  <si>
+    <t>10.49</t>
+  </si>
+  <si>
+    <t>Neneng Hikmatul</t>
+  </si>
+  <si>
+    <t>126,813,650.00</t>
+  </si>
+  <si>
+    <t>471,417,939.00</t>
+  </si>
+  <si>
+    <t>26.90</t>
+  </si>
+  <si>
+    <t>13.94</t>
+  </si>
+  <si>
+    <t>12.03</t>
+  </si>
+  <si>
+    <t>Ramesintia Sinaga</t>
+  </si>
+  <si>
+    <t>111,874,762.00</t>
+  </si>
+  <si>
+    <t>483,505,384.00</t>
+  </si>
+  <si>
+    <t>23.14</t>
+  </si>
+  <si>
+    <t>14.71</t>
+  </si>
+  <si>
+    <t>14.64</t>
+  </si>
+  <si>
+    <t>Okky Al Bana</t>
+  </si>
+  <si>
+    <t>88,170,088.00</t>
+  </si>
+  <si>
+    <t>486,621,971.00</t>
+  </si>
+  <si>
+    <t>18.12</t>
+  </si>
+  <si>
+    <t>11.16</t>
+  </si>
+  <si>
+    <t>10.09</t>
+  </si>
+  <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>118,205,332.00</t>
+  </si>
+  <si>
+    <t>472,549,859.00</t>
+  </si>
+  <si>
+    <t>25.01</t>
+  </si>
+  <si>
+    <t>14.43</t>
+  </si>
+  <si>
+    <t>15.78</t>
+  </si>
+  <si>
+    <t>Syaiful Munir</t>
+  </si>
+  <si>
+    <t>118,268,503.00</t>
+  </si>
+  <si>
+    <t>488,464,515.00</t>
+  </si>
+  <si>
+    <t>24.21</t>
+  </si>
+  <si>
+    <t>15.02</t>
+  </si>
+  <si>
+    <t>Gloriana Yesica</t>
+  </si>
+  <si>
+    <t>95,892,954.00</t>
+  </si>
+  <si>
+    <t>480,272,888.00</t>
+  </si>
+  <si>
+    <t>19.97</t>
+  </si>
+  <si>
+    <t>13.46</t>
+  </si>
+  <si>
+    <t>14.17</t>
+  </si>
+  <si>
+    <t>Fachrul Rozi</t>
+  </si>
+  <si>
+    <t>100,097,246.00</t>
+  </si>
+  <si>
+    <t>464,918,242.00</t>
+  </si>
+  <si>
+    <t>21.53</t>
+  </si>
+  <si>
+    <t>14.76</t>
+  </si>
+  <si>
+    <t>13.02</t>
+  </si>
+  <si>
+    <t>Anisa Inraniwi</t>
+  </si>
+  <si>
+    <t>104,192,823.00</t>
+  </si>
+  <si>
+    <t>464,711,924.00</t>
   </si>
   <si>
     <t>22.42</t>
   </si>
   <si>
-    <t>Shofa Khairunnisa</t>
-  </si>
-  <si>
-    <t>87,773,882.00</t>
-  </si>
-  <si>
-    <t>434,358,087.00</t>
-  </si>
-  <si>
-    <t>20.21</t>
-  </si>
-  <si>
-    <t>14.53</t>
-  </si>
-  <si>
-    <t>13.19</t>
-  </si>
-  <si>
-    <t>Febri Fransiska</t>
-  </si>
-  <si>
-    <t>85,959,564.00</t>
-  </si>
-  <si>
-    <t>480,021,338.00</t>
-  </si>
-  <si>
-    <t>17.91</t>
-  </si>
-  <si>
-    <t>10.80</t>
-  </si>
-  <si>
-    <t>10.33</t>
-  </si>
-  <si>
-    <t>Neneng Hikmatul</t>
-  </si>
-  <si>
-    <t>125,939,377.00</t>
-  </si>
-  <si>
-    <t>471,417,939.00</t>
-  </si>
-  <si>
-    <t>26.72</t>
-  </si>
-  <si>
-    <t>13.92</t>
-  </si>
-  <si>
-    <t>11.88</t>
-  </si>
-  <si>
-    <t>13.18</t>
-  </si>
-  <si>
-    <t>Ramesintia Sinaga</t>
-  </si>
-  <si>
-    <t>111,874,762.00</t>
-  </si>
-  <si>
-    <t>483,505,384.00</t>
-  </si>
-  <si>
-    <t>23.14</t>
-  </si>
-  <si>
-    <t>14.63</t>
-  </si>
-  <si>
-    <t>14.49</t>
-  </si>
-  <si>
-    <t>Okky Al Bana</t>
-  </si>
-  <si>
-    <t>86,528,479.00</t>
-  </si>
-  <si>
-    <t>486,621,971.00</t>
-  </si>
-  <si>
-    <t>17.78</t>
-  </si>
-  <si>
-    <t>10.91</t>
-  </si>
-  <si>
-    <t>9.94</t>
-  </si>
-  <si>
-    <t>Ayu Lestari</t>
-  </si>
-  <si>
-    <t>118,205,332.00</t>
-  </si>
-  <si>
-    <t>472,549,859.00</t>
-  </si>
-  <si>
-    <t>25.01</t>
-  </si>
-  <si>
-    <t>14.43</t>
-  </si>
-  <si>
-    <t>15.78</t>
-  </si>
-  <si>
-    <t>Syaiful Munir</t>
-  </si>
-  <si>
-    <t>115,674,927.00</t>
-  </si>
-  <si>
-    <t>488,464,515.00</t>
-  </si>
-  <si>
-    <t>23.68</t>
-  </si>
-  <si>
-    <t>13.94</t>
-  </si>
-  <si>
-    <t>15.02</t>
-  </si>
-  <si>
-    <t>Gloriana Yesica</t>
-  </si>
-  <si>
-    <t>91,541,747.00</t>
-  </si>
-  <si>
-    <t>480,272,888.00</t>
-  </si>
-  <si>
-    <t>19.06</t>
-  </si>
-  <si>
-    <t>14.02</t>
-  </si>
-  <si>
-    <t>Fachrul Rozi</t>
-  </si>
-  <si>
-    <t>97,779,579.00</t>
-  </si>
-  <si>
-    <t>464,918,242.00</t>
-  </si>
-  <si>
-    <t>21.03</t>
-  </si>
-  <si>
-    <t>14.60</t>
-  </si>
-  <si>
-    <t>12.87</t>
-  </si>
-  <si>
-    <t>Anisa Inraniwi</t>
-  </si>
-  <si>
-    <t>104,192,823.00</t>
-  </si>
-  <si>
-    <t>464,711,924.00</t>
-  </si>
-  <si>
     <t>10.67</t>
   </si>
   <si>
@@ -301,19 +298,19 @@
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>118,152,265.00</t>
+    <t>119,767,586.00</t>
   </si>
   <si>
     <t>475,053,929.00</t>
   </si>
   <si>
-    <t>24.87</t>
-  </si>
-  <si>
-    <t>14.58</t>
-  </si>
-  <si>
-    <t>11.11</t>
+    <t>25.21</t>
+  </si>
+  <si>
+    <t>14.81</t>
+  </si>
+  <si>
+    <t>11.27</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1154,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1222,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1237,13 +1234,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>23.259</v>
+        <v>23.399000000000001</v>
       </c>
       <c r="I2">
         <v>608</v>
       </c>
       <c r="J2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1263,7 +1260,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1275,13 +1272,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>22.744</v>
+        <v>23.044</v>
       </c>
       <c r="I3">
         <v>641</v>
       </c>
       <c r="J3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1301,7 +1298,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1313,13 +1310,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>23.8</v>
+        <v>23.911000000000001</v>
       </c>
       <c r="I4">
         <v>638</v>
       </c>
       <c r="J4">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1339,7 +1336,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -1348,10 +1345,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H5">
-        <v>16.123000000000001</v>
+        <v>16.167000000000002</v>
       </c>
       <c r="I5">
         <v>614</v>
@@ -1360,15 +1357,15 @@
         <v>81</v>
       </c>
       <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
         <v>37</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1377,36 +1374,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
       <c r="H6">
-        <v>27.347000000000001</v>
+        <v>27.905000000000001</v>
       </c>
       <c r="I6">
         <v>639</v>
       </c>
       <c r="J6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
         <v>43</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1415,36 +1412,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
       <c r="H7">
-        <v>28.026</v>
+        <v>28.184000000000001</v>
       </c>
       <c r="I7">
         <v>640</v>
       </c>
       <c r="J7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
         <v>49</v>
-      </c>
-      <c r="L7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1456,33 +1453,33 @@
         <v>163</v>
       </c>
       <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
       <c r="H8">
-        <v>42.945999999999998</v>
+        <v>43.494</v>
       </c>
       <c r="I8">
         <v>642</v>
       </c>
       <c r="J8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1491,36 +1488,36 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
         <v>59</v>
       </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
       <c r="H9">
-        <v>28.673999999999999</v>
+        <v>28.725000000000001</v>
       </c>
       <c r="I9">
         <v>644</v>
       </c>
       <c r="J9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1532,16 +1529,16 @@
         <v>185</v>
       </c>
       <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
       <c r="H10">
-        <v>32.518000000000001</v>
+        <v>32.929000000000002</v>
       </c>
       <c r="I10">
         <v>640</v>
@@ -1550,15 +1547,15 @@
         <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1567,19 +1564,19 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
         <v>71</v>
       </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
       <c r="H11">
-        <v>31.655999999999999</v>
+        <v>31.88</v>
       </c>
       <c r="I11">
         <v>639</v>
@@ -1588,15 +1585,15 @@
         <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1605,36 +1602,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H12">
-        <v>29.547000000000001</v>
+        <v>29.959</v>
       </c>
       <c r="I12">
         <v>642</v>
       </c>
       <c r="J12">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1643,36 +1640,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
         <v>82</v>
       </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>84</v>
-      </c>
       <c r="H13">
-        <v>29.43</v>
+        <v>29.622</v>
       </c>
       <c r="I13">
         <v>645</v>
       </c>
       <c r="J13">
+        <v>84</v>
+      </c>
+      <c r="K13" t="s">
         <v>83</v>
       </c>
-      <c r="K13" t="s">
-        <v>85</v>
-      </c>
       <c r="L13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1684,16 +1681,16 @@
         <v>177</v>
       </c>
       <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
         <v>88</v>
       </c>
-      <c r="F14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
       <c r="H14">
-        <v>37.430999999999997</v>
+        <v>37.713999999999999</v>
       </c>
       <c r="I14">
         <v>645</v>
@@ -1702,15 +1699,15 @@
         <v>81</v>
       </c>
       <c r="K14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1719,31 +1716,31 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="s">
         <v>93</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>94</v>
       </c>
-      <c r="G15" t="s">
-        <v>95</v>
-      </c>
       <c r="H15">
-        <v>50.131999999999998</v>
+        <v>51.283999999999999</v>
       </c>
       <c r="I15">
         <v>639</v>
       </c>
       <c r="J15">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" t="s">
         <v>96</v>
-      </c>
-      <c r="L15" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/nurlita2.xlsx
+++ b/nurlita2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CC397CC-D549-4A09-B24A-E885D4B01F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{601A46E0-3466-4613-BA07-C828B403C3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -67,34 +67,34 @@
     <t>s1</t>
   </si>
   <si>
-    <t>96,120,980.00</t>
+    <t>98,742,296.00</t>
   </si>
   <si>
     <t>432,505,627.00</t>
   </si>
   <si>
-    <t>22.22</t>
-  </si>
-  <si>
-    <t>15.51</t>
-  </si>
-  <si>
-    <t>14.14</t>
+    <t>22.83</t>
+  </si>
+  <si>
+    <t>15.71</t>
+  </si>
+  <si>
+    <t>14.64</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>92,759,216.00</t>
+    <t>95,835,814.00</t>
   </si>
   <si>
     <t>459,484,927.00</t>
   </si>
   <si>
-    <t>20.19</t>
-  </si>
-  <si>
-    <t>13.60</t>
+    <t>20.86</t>
+  </si>
+  <si>
+    <t>13.72</t>
   </si>
   <si>
     <t>14.51</t>
@@ -103,52 +103,52 @@
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>105,848,945.00</t>
+    <t>112,644,748.00</t>
   </si>
   <si>
     <t>458,559,789.00</t>
   </si>
   <si>
-    <t>23.08</t>
-  </si>
-  <si>
-    <t>14.12</t>
-  </si>
-  <si>
-    <t>14.89</t>
-  </si>
-  <si>
-    <t>20.42</t>
+    <t>24.56</t>
+  </si>
+  <si>
+    <t>14.61</t>
+  </si>
+  <si>
+    <t>15.36</t>
   </si>
   <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>88,689,435.00</t>
+    <t>92,687,685.00</t>
   </si>
   <si>
     <t>434,358,087.00</t>
   </si>
   <si>
-    <t>14.53</t>
-  </si>
-  <si>
-    <t>13.19</t>
+    <t>21.34</t>
+  </si>
+  <si>
+    <t>14.94</t>
+  </si>
+  <si>
+    <t>13.68</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>90,916,372.00</t>
+    <t>92,719,111.00</t>
   </si>
   <si>
     <t>480,021,338.00</t>
   </si>
   <si>
-    <t>18.94</t>
-  </si>
-  <si>
-    <t>10.95</t>
+    <t>19.32</t>
+  </si>
+  <si>
+    <t>11.65</t>
   </si>
   <si>
     <t>10.49</t>
@@ -157,49 +157,52 @@
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>126,813,650.00</t>
+    <t>129,019,382.00</t>
   </si>
   <si>
     <t>471,417,939.00</t>
   </si>
   <si>
-    <t>26.90</t>
-  </si>
-  <si>
-    <t>13.94</t>
-  </si>
-  <si>
-    <t>12.03</t>
+    <t>27.37</t>
+  </si>
+  <si>
+    <t>14.04</t>
+  </si>
+  <si>
+    <t>12.19</t>
+  </si>
+  <si>
+    <t>22.16</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>111,874,762.00</t>
+    <t>115,053,417.00</t>
   </si>
   <si>
     <t>483,505,384.00</t>
   </si>
   <si>
-    <t>23.14</t>
-  </si>
-  <si>
-    <t>14.71</t>
-  </si>
-  <si>
-    <t>14.64</t>
+    <t>23.80</t>
+  </si>
+  <si>
+    <t>14.80</t>
+  </si>
+  <si>
+    <t>20.66</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>88,170,088.00</t>
+    <t>89,139,332.00</t>
   </si>
   <si>
     <t>486,621,971.00</t>
   </si>
   <si>
-    <t>18.12</t>
+    <t>18.32</t>
   </si>
   <si>
     <t>11.16</t>
@@ -211,103 +214,100 @@
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>118,205,332.00</t>
+    <t>125,934,536.00</t>
   </si>
   <si>
     <t>472,549,859.00</t>
   </si>
   <si>
-    <t>25.01</t>
-  </si>
-  <si>
-    <t>14.43</t>
-  </si>
-  <si>
-    <t>15.78</t>
+    <t>26.65</t>
+  </si>
+  <si>
+    <t>15.27</t>
+  </si>
+  <si>
+    <t>16.41</t>
+  </si>
+  <si>
+    <t>23.30</t>
   </si>
   <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>118,268,503.00</t>
+    <t>122,689,746.00</t>
   </si>
   <si>
     <t>488,464,515.00</t>
   </si>
   <si>
-    <t>24.21</t>
-  </si>
-  <si>
-    <t>15.02</t>
+    <t>25.12</t>
+  </si>
+  <si>
+    <t>14.10</t>
+  </si>
+  <si>
+    <t>15.34</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>95,892,954.00</t>
+    <t>99,238,707.00</t>
   </si>
   <si>
     <t>480,272,888.00</t>
   </si>
   <si>
-    <t>19.97</t>
-  </si>
-  <si>
-    <t>13.46</t>
-  </si>
-  <si>
-    <t>14.17</t>
+    <t>13.53</t>
+  </si>
+  <si>
+    <t>14.49</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>100,097,246.00</t>
+    <t>103,032,040.00</t>
   </si>
   <si>
     <t>464,918,242.00</t>
   </si>
   <si>
-    <t>21.53</t>
-  </si>
-  <si>
-    <t>14.76</t>
-  </si>
-  <si>
-    <t>13.02</t>
+    <t>15.16</t>
+  </si>
+  <si>
+    <t>13.49</t>
   </si>
   <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>104,192,823.00</t>
+    <t>108,294,543.00</t>
   </si>
   <si>
     <t>464,711,924.00</t>
   </si>
   <si>
-    <t>22.42</t>
-  </si>
-  <si>
-    <t>10.67</t>
-  </si>
-  <si>
-    <t>12.56</t>
+    <t>10.78</t>
+  </si>
+  <si>
+    <t>12.71</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>119,767,586.00</t>
+    <t>124,437,815.00</t>
   </si>
   <si>
     <t>475,053,929.00</t>
   </si>
   <si>
-    <t>25.21</t>
-  </si>
-  <si>
-    <t>14.81</t>
+    <t>26.19</t>
+  </si>
+  <si>
+    <t>14.88</t>
   </si>
   <si>
     <t>11.27</t>
@@ -1154,24 +1154,10 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1222,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1234,13 +1220,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>23.399000000000001</v>
+        <v>24.228000000000002</v>
       </c>
       <c r="I2">
         <v>608</v>
       </c>
       <c r="J2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1260,7 +1246,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1272,7 +1258,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>23.044</v>
+        <v>23.305</v>
       </c>
       <c r="I3">
         <v>641</v>
@@ -1298,7 +1284,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1310,13 +1296,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>23.911000000000001</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <v>638</v>
       </c>
       <c r="J4">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1327,7 +1313,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1336,25 +1322,25 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
       <c r="H5">
-        <v>16.167000000000002</v>
+        <v>16.292000000000002</v>
       </c>
       <c r="I5">
         <v>614</v>
       </c>
       <c r="J5">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
@@ -1374,7 +1360,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1386,7 +1372,7 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>27.905000000000001</v>
+        <v>28.215</v>
       </c>
       <c r="I6">
         <v>639</v>
@@ -1412,7 +1398,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1424,13 +1410,13 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>28.184000000000001</v>
+        <v>28.324000000000002</v>
       </c>
       <c r="I7">
         <v>640</v>
       </c>
       <c r="J7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
         <v>48</v>
@@ -1441,7 +1427,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1450,28 +1436,28 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H8">
-        <v>43.494</v>
+        <v>44.128</v>
       </c>
       <c r="I8">
         <v>642</v>
       </c>
       <c r="J8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
         <v>55</v>
@@ -1479,7 +1465,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1488,19 +1474,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9">
-        <v>28.725000000000001</v>
+        <v>28.75</v>
       </c>
       <c r="I9">
         <v>644</v>
@@ -1509,15 +1495,15 @@
         <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1526,36 +1512,36 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10">
-        <v>32.929000000000002</v>
+        <v>33.302999999999997</v>
       </c>
       <c r="I10">
         <v>640</v>
       </c>
       <c r="J10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1564,36 +1550,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11">
-        <v>31.88</v>
+        <v>33.152000000000001</v>
       </c>
       <c r="I11">
         <v>639</v>
       </c>
       <c r="J11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1605,33 +1591,33 @@
         <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H12">
-        <v>29.959</v>
+        <v>29.975999999999999</v>
       </c>
       <c r="I12">
         <v>642</v>
       </c>
       <c r="J12">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1640,36 +1626,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>29.622</v>
+        <v>29.905999999999999</v>
       </c>
       <c r="I13">
         <v>645</v>
       </c>
       <c r="J13">
+        <v>87</v>
+      </c>
+      <c r="K13" t="s">
         <v>84</v>
       </c>
-      <c r="K13" t="s">
-        <v>83</v>
-      </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1678,25 +1664,25 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H14">
-        <v>37.713999999999999</v>
+        <v>38.231999999999999</v>
       </c>
       <c r="I14">
         <v>645</v>
       </c>
       <c r="J14">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s">
         <v>89</v>
@@ -1716,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
         <v>92</v>
@@ -1728,7 +1714,7 @@
         <v>94</v>
       </c>
       <c r="H15">
-        <v>51.283999999999999</v>
+        <v>51.622999999999998</v>
       </c>
       <c r="I15">
         <v>639</v>

--- a/nurlita2.xlsx
+++ b/nurlita2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{601A46E0-3466-4613-BA07-C828B403C3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3352CF-782C-415D-8F45-EE57E3F92197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
   <si>
     <t>Collector</t>
   </si>
@@ -67,256 +67,253 @@
     <t>s1</t>
   </si>
   <si>
-    <t>98,742,296.00</t>
-  </si>
-  <si>
-    <t>432,505,627.00</t>
-  </si>
-  <si>
-    <t>22.83</t>
-  </si>
-  <si>
-    <t>15.71</t>
-  </si>
-  <si>
-    <t>14.64</t>
+    <t>103,817,388.00</t>
+  </si>
+  <si>
+    <t>478,125,123.00</t>
+  </si>
+  <si>
+    <t>21.71</t>
+  </si>
+  <si>
+    <t>14.80</t>
+  </si>
+  <si>
+    <t>14.48</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>95,835,814.00</t>
-  </si>
-  <si>
-    <t>459,484,927.00</t>
-  </si>
-  <si>
-    <t>20.86</t>
-  </si>
-  <si>
-    <t>13.72</t>
-  </si>
-  <si>
-    <t>14.51</t>
+    <t>97,767,319.00</t>
+  </si>
+  <si>
+    <t>509,431,521.00</t>
+  </si>
+  <si>
+    <t>19.19</t>
+  </si>
+  <si>
+    <t>12.76</t>
+  </si>
+  <si>
+    <t>13.92</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>112,644,748.00</t>
-  </si>
-  <si>
-    <t>458,559,789.00</t>
-  </si>
-  <si>
-    <t>24.56</t>
-  </si>
-  <si>
-    <t>14.61</t>
-  </si>
-  <si>
-    <t>15.36</t>
+    <t>115,201,818.00</t>
+  </si>
+  <si>
+    <t>498,421,081.00</t>
+  </si>
+  <si>
+    <t>23.11</t>
+  </si>
+  <si>
+    <t>14.05</t>
+  </si>
+  <si>
+    <t>14.86</t>
   </si>
   <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>92,687,685.00</t>
-  </si>
-  <si>
-    <t>434,358,087.00</t>
-  </si>
-  <si>
-    <t>21.34</t>
-  </si>
-  <si>
-    <t>14.94</t>
-  </si>
-  <si>
-    <t>13.68</t>
+    <t>92,907,416.00</t>
+  </si>
+  <si>
+    <t>473,441,042.00</t>
+  </si>
+  <si>
+    <t>19.62</t>
+  </si>
+  <si>
+    <t>12.87</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>92,719,111.00</t>
-  </si>
-  <si>
-    <t>480,021,338.00</t>
-  </si>
-  <si>
-    <t>19.32</t>
+    <t>96,372,937.00</t>
+  </si>
+  <si>
+    <t>527,815,836.00</t>
+  </si>
+  <si>
+    <t>18.26</t>
+  </si>
+  <si>
+    <t>10.95</t>
+  </si>
+  <si>
+    <t>9.99</t>
+  </si>
+  <si>
+    <t>Neneng Hikmatul</t>
+  </si>
+  <si>
+    <t>133,333,052.00</t>
+  </si>
+  <si>
+    <t>515,591,603.00</t>
+  </si>
+  <si>
+    <t>25.86</t>
+  </si>
+  <si>
+    <t>13.56</t>
   </si>
   <si>
     <t>11.65</t>
   </si>
   <si>
-    <t>10.49</t>
-  </si>
-  <si>
-    <t>Neneng Hikmatul</t>
-  </si>
-  <si>
-    <t>129,019,382.00</t>
-  </si>
-  <si>
-    <t>471,417,939.00</t>
-  </si>
-  <si>
-    <t>27.37</t>
-  </si>
-  <si>
-    <t>14.04</t>
-  </si>
-  <si>
-    <t>12.19</t>
-  </si>
-  <si>
-    <t>22.16</t>
-  </si>
-  <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>115,053,417.00</t>
-  </si>
-  <si>
-    <t>483,505,384.00</t>
-  </si>
-  <si>
-    <t>23.80</t>
-  </si>
-  <si>
-    <t>14.80</t>
+    <t>120,189,722.00</t>
+  </si>
+  <si>
+    <t>538,935,829.00</t>
+  </si>
+  <si>
+    <t>22.30</t>
+  </si>
+  <si>
+    <t>14.34</t>
+  </si>
+  <si>
+    <t>14.77</t>
+  </si>
+  <si>
+    <t>Okky Al Bana</t>
+  </si>
+  <si>
+    <t>92,202,991.00</t>
+  </si>
+  <si>
+    <t>529,381,408.00</t>
+  </si>
+  <si>
+    <t>17.42</t>
+  </si>
+  <si>
+    <t>10.67</t>
+  </si>
+  <si>
+    <t>9.63</t>
+  </si>
+  <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>127,302,754.00</t>
+  </si>
+  <si>
+    <t>517,329,969.00</t>
+  </si>
+  <si>
+    <t>24.61</t>
+  </si>
+  <si>
+    <t>15.67</t>
+  </si>
+  <si>
+    <t>Syaiful Munir</t>
+  </si>
+  <si>
+    <t>124,121,418.00</t>
+  </si>
+  <si>
+    <t>528,555,797.00</t>
+  </si>
+  <si>
+    <t>23.48</t>
+  </si>
+  <si>
+    <t>13.63</t>
+  </si>
+  <si>
+    <t>15.12</t>
+  </si>
+  <si>
+    <t>Gloriana Yesica</t>
+  </si>
+  <si>
+    <t>100,507,152.00</t>
+  </si>
+  <si>
+    <t>523,126,457.00</t>
+  </si>
+  <si>
+    <t>19.21</t>
+  </si>
+  <si>
+    <t>12.57</t>
+  </si>
+  <si>
+    <t>13.35</t>
+  </si>
+  <si>
+    <t>Fachrul Rozi</t>
+  </si>
+  <si>
+    <t>105,137,709.00</t>
+  </si>
+  <si>
+    <t>508,979,097.00</t>
   </si>
   <si>
     <t>20.66</t>
   </si>
   <si>
-    <t>Okky Al Bana</t>
-  </si>
-  <si>
-    <t>89,139,332.00</t>
-  </si>
-  <si>
-    <t>486,621,971.00</t>
-  </si>
-  <si>
-    <t>18.32</t>
-  </si>
-  <si>
-    <t>11.16</t>
-  </si>
-  <si>
-    <t>10.09</t>
-  </si>
-  <si>
-    <t>Ayu Lestari</t>
-  </si>
-  <si>
-    <t>125,934,536.00</t>
-  </si>
-  <si>
-    <t>472,549,859.00</t>
-  </si>
-  <si>
-    <t>26.65</t>
-  </si>
-  <si>
-    <t>15.27</t>
-  </si>
-  <si>
-    <t>16.41</t>
-  </si>
-  <si>
-    <t>23.30</t>
-  </si>
-  <si>
-    <t>Syaiful Munir</t>
-  </si>
-  <si>
-    <t>122,689,746.00</t>
-  </si>
-  <si>
-    <t>488,464,515.00</t>
-  </si>
-  <si>
-    <t>25.12</t>
-  </si>
-  <si>
-    <t>14.10</t>
-  </si>
-  <si>
-    <t>15.34</t>
-  </si>
-  <si>
-    <t>Gloriana Yesica</t>
-  </si>
-  <si>
-    <t>99,238,707.00</t>
-  </si>
-  <si>
-    <t>480,272,888.00</t>
-  </si>
-  <si>
-    <t>13.53</t>
-  </si>
-  <si>
-    <t>14.49</t>
-  </si>
-  <si>
-    <t>Fachrul Rozi</t>
-  </si>
-  <si>
-    <t>103,032,040.00</t>
-  </si>
-  <si>
-    <t>464,918,242.00</t>
-  </si>
-  <si>
-    <t>15.16</t>
-  </si>
-  <si>
-    <t>13.49</t>
+    <t>14.14</t>
+  </si>
+  <si>
+    <t>12.45</t>
   </si>
   <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>108,294,543.00</t>
-  </si>
-  <si>
-    <t>464,711,924.00</t>
-  </si>
-  <si>
-    <t>10.78</t>
-  </si>
-  <si>
-    <t>12.71</t>
+    <t>112,679,555.00</t>
+  </si>
+  <si>
+    <t>512,101,187.00</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>10.86</t>
+  </si>
+  <si>
+    <t>12.11</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>124,437,815.00</t>
-  </si>
-  <si>
-    <t>475,053,929.00</t>
-  </si>
-  <si>
-    <t>26.19</t>
-  </si>
-  <si>
-    <t>14.88</t>
-  </si>
-  <si>
-    <t>11.27</t>
+    <t>125,656,325.00</t>
+  </si>
+  <si>
+    <t>515,573,150.00</t>
+  </si>
+  <si>
+    <t>24.37</t>
+  </si>
+  <si>
+    <t>14.03</t>
+  </si>
+  <si>
+    <t>10.68</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1150,11 +1147,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B155C4A-4D3B-4D42-A9CD-A7E8F27934D8}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1205,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1220,13 +1217,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>24.228000000000002</v>
+        <v>25.19</v>
       </c>
       <c r="I2">
-        <v>608</v>
+        <v>670</v>
       </c>
       <c r="J2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1246,7 +1243,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1258,13 +1255,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>23.305</v>
+        <v>23.765000000000001</v>
       </c>
       <c r="I3">
-        <v>641</v>
+        <v>704</v>
       </c>
       <c r="J3">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1284,7 +1281,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1296,13 +1293,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>24</v>
+        <v>24.774999999999999</v>
       </c>
       <c r="I4">
-        <v>638</v>
+        <v>700</v>
       </c>
       <c r="J4">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1322,7 +1319,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1337,21 +1334,21 @@
         <v>16.292000000000002</v>
       </c>
       <c r="I5">
-        <v>614</v>
+        <v>676</v>
       </c>
       <c r="J5">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
         <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1360,36 +1357,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6">
+        <v>28.442</v>
+      </c>
+      <c r="I6">
+        <v>701</v>
+      </c>
+      <c r="J6">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
         <v>41</v>
       </c>
-      <c r="H6">
-        <v>28.215</v>
-      </c>
-      <c r="I6">
-        <v>639</v>
-      </c>
-      <c r="J6">
-        <v>67</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1398,36 +1395,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7">
+        <v>28.917000000000002</v>
+      </c>
+      <c r="I7">
+        <v>704</v>
+      </c>
+      <c r="J7">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="H7">
-        <v>28.324000000000002</v>
-      </c>
-      <c r="I7">
-        <v>640</v>
-      </c>
-      <c r="J7">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1436,36 +1433,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8">
+        <v>46.131</v>
+      </c>
+      <c r="I8">
+        <v>704</v>
+      </c>
+      <c r="J8">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
         <v>53</v>
       </c>
-      <c r="G8" t="s">
+      <c r="L8" t="s">
         <v>54</v>
-      </c>
-      <c r="H8">
-        <v>44.128</v>
-      </c>
-      <c r="I8">
-        <v>642</v>
-      </c>
-      <c r="J8">
-        <v>95</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1474,36 +1471,36 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
         <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>60</v>
       </c>
       <c r="H9">
         <v>28.75</v>
       </c>
       <c r="I9">
-        <v>644</v>
+        <v>706</v>
       </c>
       <c r="J9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1512,36 +1509,36 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10">
+        <v>34.881999999999998</v>
+      </c>
+      <c r="I10">
+        <v>702</v>
+      </c>
+      <c r="J10">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s">
         <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10">
-        <v>33.302999999999997</v>
-      </c>
-      <c r="I10">
-        <v>640</v>
-      </c>
-      <c r="J10">
-        <v>105</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1550,36 +1547,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11">
+        <v>33.612000000000002</v>
+      </c>
+      <c r="I11">
+        <v>701</v>
+      </c>
+      <c r="J11">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11">
-        <v>33.152000000000001</v>
-      </c>
-      <c r="I11">
-        <v>639</v>
-      </c>
-      <c r="J11">
-        <v>98</v>
-      </c>
-      <c r="K11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1588,36 +1585,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>30.87</v>
+      </c>
+      <c r="I12">
+        <v>704</v>
+      </c>
+      <c r="J12">
+        <v>94</v>
+      </c>
+      <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
         <v>77</v>
-      </c>
-      <c r="F12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12">
-        <v>29.975999999999999</v>
-      </c>
-      <c r="I12">
-        <v>642</v>
-      </c>
-      <c r="J12">
-        <v>93</v>
-      </c>
-      <c r="K12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1626,36 +1623,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13">
+        <v>30.780999999999999</v>
+      </c>
+      <c r="I13">
+        <v>707</v>
+      </c>
+      <c r="J13">
+        <v>88</v>
+      </c>
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="F13" t="s">
+      <c r="L13" t="s">
         <v>83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13">
-        <v>29.905999999999999</v>
-      </c>
-      <c r="I13">
-        <v>645</v>
-      </c>
-      <c r="J13">
-        <v>87</v>
-      </c>
-      <c r="K13" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1664,36 +1661,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
         <v>87</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="I14">
+        <v>710</v>
+      </c>
+      <c r="J14">
+        <v>86</v>
+      </c>
+      <c r="K14" t="s">
         <v>88</v>
       </c>
-      <c r="G14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14">
-        <v>38.231999999999999</v>
-      </c>
-      <c r="I14">
-        <v>645</v>
-      </c>
-      <c r="J14">
-        <v>82</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>89</v>
-      </c>
-      <c r="L14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1702,31 +1699,31 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
         <v>92</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>93</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15">
+        <v>53.101999999999997</v>
+      </c>
+      <c r="I15">
+        <v>702</v>
+      </c>
+      <c r="J15">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
         <v>94</v>
       </c>
-      <c r="H15">
-        <v>51.622999999999998</v>
-      </c>
-      <c r="I15">
-        <v>639</v>
-      </c>
-      <c r="J15">
-        <v>72</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>95</v>
-      </c>
-      <c r="L15" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/nurlita2.xlsx
+++ b/nurlita2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3352CF-782C-415D-8F45-EE57E3F92197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9121A206-AA8B-45F9-80AC-FE7414A9EFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
   <si>
     <t>Collector</t>
   </si>
@@ -67,253 +67,259 @@
     <t>s1</t>
   </si>
   <si>
-    <t>103,817,388.00</t>
+    <t>104,000,497.00</t>
   </si>
   <si>
     <t>478,125,123.00</t>
   </si>
   <si>
-    <t>21.71</t>
-  </si>
-  <si>
-    <t>14.80</t>
+    <t>21.75</t>
+  </si>
+  <si>
+    <t>14.87</t>
+  </si>
+  <si>
+    <t>14.78</t>
+  </si>
+  <si>
+    <t>Riska Rahmayanti</t>
+  </si>
+  <si>
+    <t>99,667,319.00</t>
+  </si>
+  <si>
+    <t>509,431,521.00</t>
+  </si>
+  <si>
+    <t>19.56</t>
+  </si>
+  <si>
+    <t>13.10</t>
+  </si>
+  <si>
+    <t>14.20</t>
+  </si>
+  <si>
+    <t>18.40</t>
+  </si>
+  <si>
+    <t>Dwi Gusti Anggraini</t>
+  </si>
+  <si>
+    <t>117,264,833.00</t>
+  </si>
+  <si>
+    <t>498,421,081.00</t>
+  </si>
+  <si>
+    <t>23.53</t>
+  </si>
+  <si>
+    <t>14.13</t>
+  </si>
+  <si>
+    <t>15.14</t>
+  </si>
+  <si>
+    <t>15.67</t>
+  </si>
+  <si>
+    <t>23.69</t>
+  </si>
+  <si>
+    <t>Shofa Khairunnisa</t>
+  </si>
+  <si>
+    <t>94,430,899.00</t>
+  </si>
+  <si>
+    <t>473,441,042.00</t>
+  </si>
+  <si>
+    <t>19.95</t>
+  </si>
+  <si>
+    <t>13.92</t>
+  </si>
+  <si>
+    <t>12.87</t>
+  </si>
+  <si>
+    <t>Febri Fransiska</t>
+  </si>
+  <si>
+    <t>97,097,135.00</t>
+  </si>
+  <si>
+    <t>527,815,836.00</t>
+  </si>
+  <si>
+    <t>11.41</t>
+  </si>
+  <si>
+    <t>10.56</t>
+  </si>
+  <si>
+    <t>Neneng Hikmatul</t>
+  </si>
+  <si>
+    <t>134,333,052.00</t>
+  </si>
+  <si>
+    <t>515,591,603.00</t>
+  </si>
+  <si>
+    <t>26.05</t>
+  </si>
+  <si>
+    <t>13.71</t>
+  </si>
+  <si>
+    <t>11.65</t>
+  </si>
+  <si>
+    <t>Ramesintia Sinaga</t>
+  </si>
+  <si>
+    <t>121,147,550.00</t>
+  </si>
+  <si>
+    <t>538,935,829.00</t>
+  </si>
+  <si>
+    <t>22.48</t>
   </si>
   <si>
     <t>14.48</t>
   </si>
   <si>
-    <t>Riska Rahmayanti</t>
-  </si>
-  <si>
-    <t>97,767,319.00</t>
-  </si>
-  <si>
-    <t>509,431,521.00</t>
-  </si>
-  <si>
-    <t>19.19</t>
-  </si>
-  <si>
-    <t>12.76</t>
-  </si>
-  <si>
-    <t>13.92</t>
-  </si>
-  <si>
-    <t>Dwi Gusti Anggraini</t>
-  </si>
-  <si>
-    <t>115,201,818.00</t>
-  </si>
-  <si>
-    <t>498,421,081.00</t>
-  </si>
-  <si>
-    <t>23.11</t>
-  </si>
-  <si>
-    <t>14.05</t>
-  </si>
-  <si>
-    <t>14.86</t>
-  </si>
-  <si>
-    <t>Shofa Khairunnisa</t>
-  </si>
-  <si>
-    <t>92,907,416.00</t>
-  </si>
-  <si>
-    <t>473,441,042.00</t>
-  </si>
-  <si>
-    <t>19.62</t>
-  </si>
-  <si>
-    <t>12.87</t>
-  </si>
-  <si>
-    <t>Febri Fransiska</t>
-  </si>
-  <si>
-    <t>96,372,937.00</t>
-  </si>
-  <si>
-    <t>527,815,836.00</t>
-  </si>
-  <si>
-    <t>18.26</t>
-  </si>
-  <si>
-    <t>10.95</t>
-  </si>
-  <si>
-    <t>9.99</t>
-  </si>
-  <si>
-    <t>Neneng Hikmatul</t>
-  </si>
-  <si>
-    <t>133,333,052.00</t>
-  </si>
-  <si>
-    <t>515,591,603.00</t>
-  </si>
-  <si>
-    <t>25.86</t>
-  </si>
-  <si>
-    <t>13.56</t>
-  </si>
-  <si>
-    <t>11.65</t>
-  </si>
-  <si>
-    <t>Ramesintia Sinaga</t>
-  </si>
-  <si>
-    <t>120,189,722.00</t>
-  </si>
-  <si>
-    <t>538,935,829.00</t>
-  </si>
-  <si>
-    <t>22.30</t>
+    <t>14.91</t>
+  </si>
+  <si>
+    <t>Okky Al Bana</t>
+  </si>
+  <si>
+    <t>94,449,424.00</t>
+  </si>
+  <si>
+    <t>529,381,408.00</t>
+  </si>
+  <si>
+    <t>17.84</t>
+  </si>
+  <si>
+    <t>10.90</t>
+  </si>
+  <si>
+    <t>9.92</t>
+  </si>
+  <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>127,302,754.00</t>
+  </si>
+  <si>
+    <t>517,329,969.00</t>
+  </si>
+  <si>
+    <t>24.61</t>
   </si>
   <si>
     <t>14.34</t>
   </si>
   <si>
-    <t>14.77</t>
-  </si>
-  <si>
-    <t>Okky Al Bana</t>
-  </si>
-  <si>
-    <t>92,202,991.00</t>
-  </si>
-  <si>
-    <t>529,381,408.00</t>
-  </si>
-  <si>
-    <t>17.42</t>
-  </si>
-  <si>
-    <t>10.67</t>
-  </si>
-  <si>
-    <t>9.63</t>
-  </si>
-  <si>
-    <t>Ayu Lestari</t>
-  </si>
-  <si>
-    <t>127,302,754.00</t>
-  </si>
-  <si>
-    <t>517,329,969.00</t>
-  </si>
-  <si>
-    <t>24.61</t>
-  </si>
-  <si>
-    <t>15.67</t>
-  </si>
-  <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>124,121,418.00</t>
+    <t>125,203,599.00</t>
   </si>
   <si>
     <t>528,555,797.00</t>
   </si>
   <si>
-    <t>23.48</t>
-  </si>
-  <si>
-    <t>13.63</t>
-  </si>
-  <si>
-    <t>15.12</t>
+    <t>13.70</t>
+  </si>
+  <si>
+    <t>15.41</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>100,507,152.00</t>
+    <t>104,608,742.00</t>
   </si>
   <si>
     <t>523,126,457.00</t>
   </si>
   <si>
-    <t>19.21</t>
-  </si>
-  <si>
-    <t>12.57</t>
-  </si>
-  <si>
-    <t>13.35</t>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>13.19</t>
+  </si>
+  <si>
+    <t>13.49</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>105,137,709.00</t>
+    <t>109,715,771.00</t>
   </si>
   <si>
     <t>508,979,097.00</t>
   </si>
   <si>
-    <t>20.66</t>
-  </si>
-  <si>
-    <t>14.14</t>
-  </si>
-  <si>
-    <t>12.45</t>
+    <t>21.56</t>
+  </si>
+  <si>
+    <t>14.69</t>
+  </si>
+  <si>
+    <t>13.01</t>
   </si>
   <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>112,679,555.00</t>
+    <t>115,434,396.00</t>
   </si>
   <si>
     <t>512,101,187.00</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>10.86</t>
-  </si>
-  <si>
-    <t>12.11</t>
+    <t>22.54</t>
+  </si>
+  <si>
+    <t>11.25</t>
+  </si>
+  <si>
+    <t>12.39</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>125,656,325.00</t>
+    <t>126,619,679.00</t>
   </si>
   <si>
     <t>515,573,150.00</t>
   </si>
   <si>
-    <t>24.37</t>
-  </si>
-  <si>
-    <t>14.03</t>
-  </si>
-  <si>
-    <t>10.68</t>
+    <t>24.56</t>
+  </si>
+  <si>
+    <t>14.18</t>
+  </si>
+  <si>
+    <t>10.83</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1147,14 +1153,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B155C4A-4D3B-4D42-A9CD-A7E8F27934D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1205,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1217,13 +1235,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>25.19</v>
+        <v>26.202999999999999</v>
       </c>
       <c r="I2">
         <v>670</v>
       </c>
       <c r="J2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1243,7 +1261,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1255,13 +1273,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>23.765000000000001</v>
+        <v>24.391999999999999</v>
       </c>
       <c r="I3">
         <v>704</v>
       </c>
       <c r="J3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1272,7 +1290,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1281,36 +1299,36 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>24.774999999999999</v>
+        <v>25.076000000000001</v>
       </c>
       <c r="I4">
         <v>700</v>
       </c>
       <c r="J4">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1319,16 +1337,16 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>16.292000000000002</v>
@@ -1340,15 +1358,15 @@
         <v>87</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1357,36 +1375,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>28.442</v>
+        <v>28.872</v>
       </c>
       <c r="I6">
         <v>701</v>
       </c>
       <c r="J6">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1395,19 +1413,19 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H7">
-        <v>28.917000000000002</v>
+        <v>28.998000000000001</v>
       </c>
       <c r="I7">
         <v>704</v>
@@ -1416,15 +1434,15 @@
         <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1433,36 +1451,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H8">
-        <v>46.131</v>
+        <v>47.49</v>
       </c>
       <c r="I8">
         <v>704</v>
       </c>
       <c r="J8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1471,16 +1489,16 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H9">
         <v>28.75</v>
@@ -1489,18 +1507,18 @@
         <v>706</v>
       </c>
       <c r="J9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1512,16 +1530,16 @@
         <v>204</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H10">
-        <v>34.881999999999998</v>
+        <v>35.664999999999999</v>
       </c>
       <c r="I10">
         <v>702</v>
@@ -1530,15 +1548,15 @@
         <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1547,36 +1565,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>33.612000000000002</v>
+        <v>34.521000000000001</v>
       </c>
       <c r="I11">
         <v>701</v>
       </c>
       <c r="J11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1585,36 +1603,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H12">
-        <v>30.87</v>
+        <v>31.602</v>
       </c>
       <c r="I12">
         <v>704</v>
       </c>
       <c r="J12">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1623,36 +1641,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H13">
-        <v>30.780999999999999</v>
+        <v>31.149000000000001</v>
       </c>
       <c r="I13">
         <v>707</v>
       </c>
       <c r="J13">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1661,36 +1679,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14">
-        <v>39.159999999999997</v>
+        <v>39.515000000000001</v>
       </c>
       <c r="I14">
         <v>710</v>
       </c>
       <c r="J14">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1699,31 +1717,31 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H15">
-        <v>53.101999999999997</v>
+        <v>54.283000000000001</v>
       </c>
       <c r="I15">
         <v>702</v>
       </c>
       <c r="J15">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/nurlita2.xlsx
+++ b/nurlita2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9121A206-AA8B-45F9-80AC-FE7414A9EFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC51121-DD35-483A-83EA-6BF26FEFC5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -67,93 +67,93 @@
     <t>s1</t>
   </si>
   <si>
-    <t>104,000,497.00</t>
+    <t>105,845,772.00</t>
   </si>
   <si>
     <t>478,125,123.00</t>
   </si>
   <si>
-    <t>21.75</t>
-  </si>
-  <si>
-    <t>14.87</t>
-  </si>
-  <si>
-    <t>14.78</t>
+    <t>22.14</t>
+  </si>
+  <si>
+    <t>15.04</t>
+  </si>
+  <si>
+    <t>15.07</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>99,667,319.00</t>
+    <t>100,401,383.00</t>
   </si>
   <si>
     <t>509,431,521.00</t>
   </si>
   <si>
-    <t>19.56</t>
-  </si>
-  <si>
-    <t>13.10</t>
-  </si>
-  <si>
-    <t>14.20</t>
-  </si>
-  <si>
-    <t>18.40</t>
+    <t>19.71</t>
+  </si>
+  <si>
+    <t>13.17</t>
+  </si>
+  <si>
+    <t>14.49</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>117,264,833.00</t>
+    <t>118,450,004.00</t>
   </si>
   <si>
     <t>498,421,081.00</t>
   </si>
   <si>
-    <t>23.53</t>
-  </si>
-  <si>
-    <t>14.13</t>
-  </si>
-  <si>
-    <t>15.14</t>
-  </si>
-  <si>
-    <t>15.67</t>
-  </si>
-  <si>
-    <t>23.69</t>
+    <t>23.77</t>
+  </si>
+  <si>
+    <t>14.46</t>
+  </si>
+  <si>
+    <t>15.57</t>
+  </si>
+  <si>
+    <t>14.18</t>
+  </si>
+  <si>
+    <t>11.65</t>
   </si>
   <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>94,430,899.00</t>
+    <t>94,607,456.00</t>
   </si>
   <si>
     <t>473,441,042.00</t>
   </si>
   <si>
-    <t>19.95</t>
-  </si>
-  <si>
-    <t>13.92</t>
-  </si>
-  <si>
-    <t>12.87</t>
+    <t>19.98</t>
+  </si>
+  <si>
+    <t>14.17</t>
+  </si>
+  <si>
+    <t>13.02</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>97,097,135.00</t>
+    <t>97,807,458.00</t>
   </si>
   <si>
     <t>527,815,836.00</t>
   </si>
   <si>
+    <t>18.53</t>
+  </si>
+  <si>
     <t>11.41</t>
   </si>
   <si>
@@ -163,19 +163,19 @@
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>134,333,052.00</t>
+    <t>134,516,161.00</t>
   </si>
   <si>
     <t>515,591,603.00</t>
   </si>
   <si>
-    <t>26.05</t>
-  </si>
-  <si>
-    <t>13.71</t>
-  </si>
-  <si>
-    <t>11.65</t>
+    <t>26.09</t>
+  </si>
+  <si>
+    <t>13.74</t>
+  </si>
+  <si>
+    <t>15.69</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
@@ -199,118 +199,118 @@
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>94,449,424.00</t>
+    <t>95,020,728.00</t>
   </si>
   <si>
     <t>529,381,408.00</t>
   </si>
   <si>
-    <t>17.84</t>
-  </si>
-  <si>
-    <t>10.90</t>
-  </si>
-  <si>
-    <t>9.92</t>
+    <t>17.95</t>
+  </si>
+  <si>
+    <t>10.99</t>
+  </si>
+  <si>
+    <t>10.06</t>
   </si>
   <si>
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>127,302,754.00</t>
+    <t>128,430,279.00</t>
   </si>
   <si>
     <t>517,329,969.00</t>
   </si>
   <si>
-    <t>24.61</t>
-  </si>
-  <si>
-    <t>14.34</t>
+    <t>24.83</t>
+  </si>
+  <si>
+    <t>14.37</t>
+  </si>
+  <si>
+    <t>15.95</t>
   </si>
   <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>125,203,599.00</t>
+    <t>125,589,961.00</t>
   </si>
   <si>
     <t>528,555,797.00</t>
   </si>
   <si>
-    <t>13.70</t>
-  </si>
-  <si>
-    <t>15.41</t>
+    <t>23.76</t>
+  </si>
+  <si>
+    <t>13.88</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>104,608,742.00</t>
+    <t>107,151,282.00</t>
   </si>
   <si>
     <t>523,126,457.00</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>13.19</t>
-  </si>
-  <si>
-    <t>13.49</t>
+    <t>20.48</t>
+  </si>
+  <si>
+    <t>13.31</t>
+  </si>
+  <si>
+    <t>13.78</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>109,715,771.00</t>
+    <t>111,525,647.00</t>
   </si>
   <si>
     <t>508,979,097.00</t>
   </si>
   <si>
-    <t>21.56</t>
-  </si>
-  <si>
-    <t>14.69</t>
-  </si>
-  <si>
-    <t>13.01</t>
+    <t>21.91</t>
+  </si>
+  <si>
+    <t>15.18</t>
+  </si>
+  <si>
+    <t>13.72</t>
   </si>
   <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>115,434,396.00</t>
+    <t>117,881,565.00</t>
   </si>
   <si>
     <t>512,101,187.00</t>
   </si>
   <si>
-    <t>22.54</t>
-  </si>
-  <si>
-    <t>11.25</t>
-  </si>
-  <si>
-    <t>12.39</t>
+    <t>23.02</t>
+  </si>
+  <si>
+    <t>11.52</t>
+  </si>
+  <si>
+    <t>12.68</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>126,619,679.00</t>
+    <t>131,308,670.00</t>
   </si>
   <si>
     <t>515,573,150.00</t>
   </si>
   <si>
-    <t>24.56</t>
-  </si>
-  <si>
-    <t>14.18</t>
+    <t>25.47</t>
   </si>
   <si>
     <t>10.83</t>
@@ -1156,7 +1156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1223,7 +1225,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1235,13 +1237,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>26.202999999999999</v>
+        <v>26.773</v>
       </c>
       <c r="I2">
         <v>670</v>
       </c>
       <c r="J2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1261,7 +1263,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1273,13 +1275,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>24.391999999999999</v>
+        <v>24.667999999999999</v>
       </c>
       <c r="I3">
         <v>704</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1290,7 +1292,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1302,33 +1304,33 @@
         <v>193</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
       <c r="H4">
-        <v>25.076000000000001</v>
+        <v>25.152999999999999</v>
       </c>
       <c r="I4">
         <v>700</v>
       </c>
       <c r="J4">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
         <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1337,16 +1339,16 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
       </c>
       <c r="H5">
         <v>16.292000000000002</v>
@@ -1355,18 +1357,18 @@
         <v>676</v>
       </c>
       <c r="J5">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
         <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1375,19 +1377,19 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
       <c r="H6">
-        <v>28.872</v>
+        <v>29.126000000000001</v>
       </c>
       <c r="I6">
         <v>701</v>
@@ -1413,7 +1415,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
@@ -1425,7 +1427,7 @@
         <v>49</v>
       </c>
       <c r="H7">
-        <v>28.998000000000001</v>
+        <v>29.007999999999999</v>
       </c>
       <c r="I7">
         <v>704</v>
@@ -1437,7 +1439,7 @@
         <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1451,7 +1453,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
         <v>53</v>
@@ -1463,7 +1465,7 @@
         <v>55</v>
       </c>
       <c r="H8">
-        <v>47.49</v>
+        <v>47.783000000000001</v>
       </c>
       <c r="I8">
         <v>704</v>
@@ -1489,7 +1491,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
@@ -1507,7 +1509,7 @@
         <v>706</v>
       </c>
       <c r="J9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
         <v>62</v>
@@ -1527,7 +1529,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
         <v>65</v>
@@ -1539,24 +1541,24 @@
         <v>67</v>
       </c>
       <c r="H10">
-        <v>35.664999999999999</v>
+        <v>35.991</v>
       </c>
       <c r="I10">
         <v>702</v>
       </c>
       <c r="J10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1565,36 +1567,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="H11">
-        <v>34.521000000000001</v>
+        <v>35.082999999999998</v>
       </c>
       <c r="I11">
         <v>701</v>
       </c>
       <c r="J11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1603,36 +1605,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12">
-        <v>31.602</v>
+        <v>31.687999999999999</v>
       </c>
       <c r="I12">
         <v>704</v>
       </c>
       <c r="J12">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1641,36 +1643,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13">
-        <v>31.149000000000001</v>
+        <v>31.673999999999999</v>
       </c>
       <c r="I13">
         <v>707</v>
       </c>
       <c r="J13">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1679,36 +1681,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14">
-        <v>39.515000000000001</v>
+        <v>39.674999999999997</v>
       </c>
       <c r="I14">
         <v>710</v>
       </c>
       <c r="J14">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1717,16 +1719,16 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15">
         <v>54.283000000000001</v>
@@ -1738,7 +1740,7 @@
         <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="L15" t="s">
         <v>97</v>

--- a/nurlita2.xlsx
+++ b/nurlita2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC51121-DD35-483A-83EA-6BF26FEFC5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{156821ED-B703-49EB-8469-37EE35919815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -67,94 +67,91 @@
     <t>s1</t>
   </si>
   <si>
-    <t>105,845,772.00</t>
-  </si>
-  <si>
-    <t>478,125,123.00</t>
-  </si>
-  <si>
-    <t>22.14</t>
-  </si>
-  <si>
-    <t>15.04</t>
-  </si>
-  <si>
-    <t>15.07</t>
+    <t>105,953,332.00</t>
+  </si>
+  <si>
+    <t>496,525,037.00</t>
+  </si>
+  <si>
+    <t>21.34</t>
+  </si>
+  <si>
+    <t>14.66</t>
+  </si>
+  <si>
+    <t>14.71</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>100,401,383.00</t>
-  </si>
-  <si>
-    <t>509,431,521.00</t>
-  </si>
-  <si>
-    <t>19.71</t>
-  </si>
-  <si>
-    <t>13.17</t>
-  </si>
-  <si>
-    <t>14.49</t>
+    <t>101,914,515.00</t>
+  </si>
+  <si>
+    <t>530,700,183.00</t>
+  </si>
+  <si>
+    <t>19.20</t>
+  </si>
+  <si>
+    <t>12.79</t>
+  </si>
+  <si>
+    <t>14.07</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>118,450,004.00</t>
-  </si>
-  <si>
-    <t>498,421,081.00</t>
-  </si>
-  <si>
-    <t>23.77</t>
-  </si>
-  <si>
-    <t>14.46</t>
-  </si>
-  <si>
-    <t>15.57</t>
-  </si>
-  <si>
-    <t>14.18</t>
-  </si>
-  <si>
-    <t>11.65</t>
+    <t>120,951,849.00</t>
+  </si>
+  <si>
+    <t>516,061,290.00</t>
+  </si>
+  <si>
+    <t>23.44</t>
+  </si>
+  <si>
+    <t>14.42</t>
+  </si>
+  <si>
+    <t>15.11</t>
+  </si>
+  <si>
+    <t>15.36</t>
   </si>
   <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>94,607,456.00</t>
-  </si>
-  <si>
-    <t>473,441,042.00</t>
-  </si>
-  <si>
-    <t>19.98</t>
-  </si>
-  <si>
-    <t>14.17</t>
-  </si>
-  <si>
-    <t>13.02</t>
+    <t>95,699,464.00</t>
+  </si>
+  <si>
+    <t>492,928,251.00</t>
+  </si>
+  <si>
+    <t>19.41</t>
+  </si>
+  <si>
+    <t>13.87</t>
+  </si>
+  <si>
+    <t>12.78</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>97,807,458.00</t>
-  </si>
-  <si>
-    <t>527,815,836.00</t>
-  </si>
-  <si>
-    <t>18.53</t>
-  </si>
-  <si>
-    <t>11.41</t>
+    <t>100,426,431.00</t>
+  </si>
+  <si>
+    <t>547,851,088.00</t>
+  </si>
+  <si>
+    <t>18.33</t>
+  </si>
+  <si>
+    <t>11.35</t>
   </si>
   <si>
     <t>10.56</t>
@@ -163,157 +160,160 @@
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>134,516,161.00</t>
-  </si>
-  <si>
-    <t>515,591,603.00</t>
-  </si>
-  <si>
-    <t>26.09</t>
-  </si>
-  <si>
-    <t>13.74</t>
-  </si>
-  <si>
-    <t>15.69</t>
+    <t>136,052,680.00</t>
+  </si>
+  <si>
+    <t>536,509,428.00</t>
+  </si>
+  <si>
+    <t>25.36</t>
+  </si>
+  <si>
+    <t>13.47</t>
+  </si>
+  <si>
+    <t>11.61</t>
+  </si>
+  <si>
+    <t>21.39</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>121,147,550.00</t>
-  </si>
-  <si>
-    <t>538,935,829.00</t>
-  </si>
-  <si>
-    <t>22.48</t>
-  </si>
-  <si>
-    <t>14.48</t>
-  </si>
-  <si>
-    <t>14.91</t>
+    <t>122,646,112.00</t>
+  </si>
+  <si>
+    <t>562,903,350.00</t>
+  </si>
+  <si>
+    <t>21.79</t>
+  </si>
+  <si>
+    <t>14.13</t>
+  </si>
+  <si>
+    <t>14.75</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>95,020,728.00</t>
-  </si>
-  <si>
-    <t>529,381,408.00</t>
-  </si>
-  <si>
-    <t>17.95</t>
-  </si>
-  <si>
-    <t>10.99</t>
-  </si>
-  <si>
-    <t>10.06</t>
+    <t>95,842,398.00</t>
+  </si>
+  <si>
+    <t>551,480,411.00</t>
+  </si>
+  <si>
+    <t>17.38</t>
+  </si>
+  <si>
+    <t>10.63</t>
+  </si>
+  <si>
+    <t>9.80</t>
   </si>
   <si>
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>128,430,279.00</t>
-  </si>
-  <si>
-    <t>517,329,969.00</t>
-  </si>
-  <si>
-    <t>24.83</t>
-  </si>
-  <si>
-    <t>14.37</t>
-  </si>
-  <si>
-    <t>15.95</t>
+    <t>128,885,648.00</t>
+  </si>
+  <si>
+    <t>534,643,664.00</t>
+  </si>
+  <si>
+    <t>24.11</t>
+  </si>
+  <si>
+    <t>13.98</t>
+  </si>
+  <si>
+    <t>15.32</t>
   </si>
   <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>125,589,961.00</t>
-  </si>
-  <si>
-    <t>528,555,797.00</t>
-  </si>
-  <si>
-    <t>23.76</t>
-  </si>
-  <si>
-    <t>13.88</t>
+    <t>126,921,858.00</t>
+  </si>
+  <si>
+    <t>546,168,257.00</t>
+  </si>
+  <si>
+    <t>23.24</t>
+  </si>
+  <si>
+    <t>13.54</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>107,151,282.00</t>
-  </si>
-  <si>
-    <t>523,126,457.00</t>
-  </si>
-  <si>
-    <t>20.48</t>
-  </si>
-  <si>
-    <t>13.31</t>
-  </si>
-  <si>
-    <t>13.78</t>
+    <t>108,824,115.00</t>
+  </si>
+  <si>
+    <t>541,797,311.00</t>
+  </si>
+  <si>
+    <t>20.09</t>
+  </si>
+  <si>
+    <t>12.95</t>
+  </si>
+  <si>
+    <t>13.39</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>111,525,647.00</t>
-  </si>
-  <si>
-    <t>508,979,097.00</t>
-  </si>
-  <si>
-    <t>21.91</t>
-  </si>
-  <si>
-    <t>15.18</t>
-  </si>
-  <si>
-    <t>13.72</t>
+    <t>113,277,619.00</t>
+  </si>
+  <si>
+    <t>529,573,730.00</t>
+  </si>
+  <si>
+    <t>14.80</t>
+  </si>
+  <si>
+    <t>13.32</t>
   </si>
   <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>117,881,565.00</t>
-  </si>
-  <si>
-    <t>512,101,187.00</t>
-  </si>
-  <si>
-    <t>23.02</t>
-  </si>
-  <si>
-    <t>11.52</t>
-  </si>
-  <si>
-    <t>12.68</t>
+    <t>118,485,834.00</t>
+  </si>
+  <si>
+    <t>529,964,396.00</t>
+  </si>
+  <si>
+    <t>22.36</t>
+  </si>
+  <si>
+    <t>11.25</t>
+  </si>
+  <si>
+    <t>12.60</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>131,308,670.00</t>
-  </si>
-  <si>
-    <t>515,573,150.00</t>
-  </si>
-  <si>
-    <t>25.47</t>
-  </si>
-  <si>
-    <t>10.83</t>
+    <t>132,911,108.00</t>
+  </si>
+  <si>
+    <t>535,710,779.00</t>
+  </si>
+  <si>
+    <t>24.81</t>
+  </si>
+  <si>
+    <t>13.84</t>
+  </si>
+  <si>
+    <t>10.55</t>
   </si>
 </sst>
 </file>
@@ -1156,9 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1225,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1237,13 +1235,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>26.773</v>
+        <v>27.298999999999999</v>
       </c>
       <c r="I2">
-        <v>670</v>
+        <v>700</v>
       </c>
       <c r="J2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1263,7 +1261,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1275,13 +1273,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>24.667999999999999</v>
+        <v>25.963999999999999</v>
       </c>
       <c r="I3">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="J3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1301,7 +1299,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1313,13 +1311,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>25.152999999999999</v>
+        <v>25.873000000000001</v>
       </c>
       <c r="I4">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="J4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1330,7 +1328,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1339,36 +1337,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
       </c>
       <c r="H5">
         <v>16.292000000000002</v>
       </c>
       <c r="I5">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="J5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
         <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1377,36 +1375,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6">
+        <v>29.696000000000002</v>
+      </c>
+      <c r="I6">
+        <v>729</v>
+      </c>
+      <c r="J6">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="H6">
-        <v>29.126000000000001</v>
-      </c>
-      <c r="I6">
-        <v>701</v>
-      </c>
-      <c r="J6">
-        <v>74</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1415,31 +1413,31 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7">
+        <v>29.332000000000001</v>
+      </c>
+      <c r="I7">
+        <v>732</v>
+      </c>
+      <c r="J7">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
         <v>49</v>
       </c>
-      <c r="H7">
-        <v>29.007999999999999</v>
-      </c>
-      <c r="I7">
-        <v>704</v>
-      </c>
-      <c r="J7">
-        <v>82</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>50</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1453,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
         <v>53</v>
@@ -1465,13 +1463,13 @@
         <v>55</v>
       </c>
       <c r="H8">
-        <v>47.783000000000001</v>
+        <v>49.555</v>
       </c>
       <c r="I8">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="J8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
         <v>56</v>
@@ -1491,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
@@ -1503,13 +1501,13 @@
         <v>61</v>
       </c>
       <c r="H9">
-        <v>28.75</v>
+        <v>29.443000000000001</v>
       </c>
       <c r="I9">
-        <v>706</v>
+        <v>735</v>
       </c>
       <c r="J9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s">
         <v>62</v>
@@ -1529,7 +1527,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E10" t="s">
         <v>65</v>
@@ -1541,10 +1539,10 @@
         <v>67</v>
       </c>
       <c r="H10">
-        <v>35.991</v>
+        <v>37.000999999999998</v>
       </c>
       <c r="I10">
-        <v>702</v>
+        <v>731</v>
       </c>
       <c r="J10">
         <v>112</v>
@@ -1567,7 +1565,7 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E11" t="s">
         <v>71</v>
@@ -1579,19 +1577,19 @@
         <v>73</v>
       </c>
       <c r="H11">
-        <v>35.082999999999998</v>
+        <v>35.308999999999997</v>
       </c>
       <c r="I11">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="J11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
         <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1605,7 +1603,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E12" t="s">
         <v>76</v>
@@ -1617,13 +1615,13 @@
         <v>78</v>
       </c>
       <c r="H12">
-        <v>31.687999999999999</v>
+        <v>32.646999999999998</v>
       </c>
       <c r="I12">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="J12">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K12" t="s">
         <v>79</v>
@@ -1643,7 +1641,7 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
         <v>82</v>
@@ -1652,27 +1650,27 @@
         <v>83</v>
       </c>
       <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13">
+        <v>33.149000000000001</v>
+      </c>
+      <c r="I13">
+        <v>736</v>
+      </c>
+      <c r="J13">
+        <v>98</v>
+      </c>
+      <c r="K13" t="s">
         <v>84</v>
       </c>
-      <c r="H13">
-        <v>31.673999999999999</v>
-      </c>
-      <c r="I13">
-        <v>707</v>
-      </c>
-      <c r="J13">
-        <v>97</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>85</v>
-      </c>
-      <c r="L13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1681,36 +1679,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
         <v>88</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>89</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14">
+        <v>40.856000000000002</v>
+      </c>
+      <c r="I14">
+        <v>738</v>
+      </c>
+      <c r="J14">
+        <v>93</v>
+      </c>
+      <c r="K14" t="s">
         <v>90</v>
       </c>
-      <c r="H14">
-        <v>39.674999999999997</v>
-      </c>
-      <c r="I14">
-        <v>710</v>
-      </c>
-      <c r="J14">
-        <v>90</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1719,28 +1717,28 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
         <v>94</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>95</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15">
+        <v>54.57</v>
+      </c>
+      <c r="I15">
+        <v>730</v>
+      </c>
+      <c r="J15">
+        <v>77</v>
+      </c>
+      <c r="K15" t="s">
         <v>96</v>
-      </c>
-      <c r="H15">
-        <v>54.283000000000001</v>
-      </c>
-      <c r="I15">
-        <v>702</v>
-      </c>
-      <c r="J15">
-        <v>76</v>
-      </c>
-      <c r="K15" t="s">
-        <v>32</v>
       </c>
       <c r="L15" t="s">
         <v>97</v>

--- a/nurlita2.xlsx
+++ b/nurlita2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{156821ED-B703-49EB-8469-37EE35919815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{445E1FB5-292C-4387-AB5F-87941BED4BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -67,148 +67,142 @@
     <t>s1</t>
   </si>
   <si>
-    <t>105,953,332.00</t>
+    <t>114,588,488.00</t>
   </si>
   <si>
     <t>496,525,037.00</t>
   </si>
   <si>
-    <t>21.34</t>
-  </si>
-  <si>
-    <t>14.66</t>
-  </si>
-  <si>
-    <t>14.71</t>
+    <t>23.08</t>
+  </si>
+  <si>
+    <t>14.97</t>
+  </si>
+  <si>
+    <t>14.86</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>101,914,515.00</t>
+    <t>104,830,232.00</t>
   </si>
   <si>
     <t>530,700,183.00</t>
   </si>
   <si>
-    <t>19.20</t>
-  </si>
-  <si>
-    <t>12.79</t>
-  </si>
-  <si>
-    <t>14.07</t>
+    <t>19.75</t>
+  </si>
+  <si>
+    <t>13.32</t>
+  </si>
+  <si>
+    <t>14.48</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>120,951,849.00</t>
+    <t>123,088,293.00</t>
   </si>
   <si>
     <t>516,061,290.00</t>
   </si>
   <si>
-    <t>23.44</t>
-  </si>
-  <si>
-    <t>14.42</t>
-  </si>
-  <si>
-    <t>15.11</t>
-  </si>
-  <si>
-    <t>15.36</t>
+    <t>23.85</t>
+  </si>
+  <si>
+    <t>14.57</t>
+  </si>
+  <si>
+    <t>15.38</t>
   </si>
   <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>95,699,464.00</t>
+    <t>97,087,037.00</t>
   </si>
   <si>
     <t>492,928,251.00</t>
   </si>
   <si>
-    <t>19.41</t>
-  </si>
-  <si>
-    <t>13.87</t>
-  </si>
-  <si>
-    <t>12.78</t>
+    <t>19.70</t>
+  </si>
+  <si>
+    <t>13.95</t>
+  </si>
+  <si>
+    <t>12.93</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>100,426,431.00</t>
+    <t>103,844,593.00</t>
   </si>
   <si>
     <t>547,851,088.00</t>
   </si>
   <si>
-    <t>18.33</t>
-  </si>
-  <si>
-    <t>11.35</t>
-  </si>
-  <si>
-    <t>10.56</t>
+    <t>18.95</t>
+  </si>
+  <si>
+    <t>11.53</t>
+  </si>
+  <si>
+    <t>10.84</t>
   </si>
   <si>
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>136,052,680.00</t>
+    <t>140,397,712.00</t>
   </si>
   <si>
     <t>536,509,428.00</t>
   </si>
   <si>
-    <t>25.36</t>
-  </si>
-  <si>
-    <t>13.47</t>
-  </si>
-  <si>
-    <t>11.61</t>
-  </si>
-  <si>
-    <t>21.39</t>
+    <t>26.17</t>
+  </si>
+  <si>
+    <t>13.73</t>
+  </si>
+  <si>
+    <t>11.89</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>122,646,112.00</t>
+    <t>123,506,671.00</t>
   </si>
   <si>
     <t>562,903,350.00</t>
   </si>
   <si>
-    <t>21.79</t>
-  </si>
-  <si>
-    <t>14.13</t>
-  </si>
-  <si>
-    <t>14.75</t>
+    <t>21.94</t>
+  </si>
+  <si>
+    <t>14.17</t>
+  </si>
+  <si>
+    <t>14.89</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>95,842,398.00</t>
+    <t>99,507,388.00</t>
   </si>
   <si>
     <t>551,480,411.00</t>
   </si>
   <si>
-    <t>17.38</t>
-  </si>
-  <si>
-    <t>10.63</t>
+    <t>18.04</t>
+  </si>
+  <si>
+    <t>10.66</t>
   </si>
   <si>
     <t>9.80</t>
@@ -217,103 +211,109 @@
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>128,885,648.00</t>
+    <t>137,792,690.00</t>
   </si>
   <si>
     <t>534,643,664.00</t>
   </si>
   <si>
-    <t>24.11</t>
-  </si>
-  <si>
-    <t>13.98</t>
-  </si>
-  <si>
-    <t>15.32</t>
+    <t>25.77</t>
+  </si>
+  <si>
+    <t>14.69</t>
+  </si>
+  <si>
+    <t>16.42</t>
   </si>
   <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>126,921,858.00</t>
+    <t>128,401,131.00</t>
   </si>
   <si>
     <t>546,168,257.00</t>
   </si>
   <si>
-    <t>23.24</t>
-  </si>
-  <si>
-    <t>13.54</t>
+    <t>23.51</t>
+  </si>
+  <si>
+    <t>13.80</t>
+  </si>
+  <si>
+    <t>15.64</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>108,824,115.00</t>
+    <t>110,460,538.00</t>
   </si>
   <si>
     <t>541,797,311.00</t>
   </si>
   <si>
-    <t>20.09</t>
-  </si>
-  <si>
-    <t>12.95</t>
-  </si>
-  <si>
-    <t>13.39</t>
+    <t>20.39</t>
+  </si>
+  <si>
+    <t>13.15</t>
+  </si>
+  <si>
+    <t>13.66</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>113,277,619.00</t>
+    <t>116,127,459.00</t>
   </si>
   <si>
     <t>529,573,730.00</t>
   </si>
   <si>
-    <t>14.80</t>
-  </si>
-  <si>
-    <t>13.32</t>
+    <t>21.93</t>
+  </si>
+  <si>
+    <t>14.93</t>
+  </si>
+  <si>
+    <t>13.45</t>
   </si>
   <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>118,485,834.00</t>
+    <t>119,412,718.00</t>
   </si>
   <si>
     <t>529,964,396.00</t>
   </si>
   <si>
-    <t>22.36</t>
-  </si>
-  <si>
-    <t>11.25</t>
-  </si>
-  <si>
-    <t>12.60</t>
+    <t>22.53</t>
+  </si>
+  <si>
+    <t>11.30</t>
+  </si>
+  <si>
+    <t>12.74</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>132,911,108.00</t>
+    <t>136,054,366.00</t>
   </si>
   <si>
     <t>535,710,779.00</t>
   </si>
   <si>
-    <t>24.81</t>
-  </si>
-  <si>
-    <t>13.84</t>
-  </si>
-  <si>
-    <t>10.55</t>
+    <t>25.40</t>
+  </si>
+  <si>
+    <t>13.86</t>
+  </si>
+  <si>
+    <t>10.68</t>
   </si>
 </sst>
 </file>
@@ -1156,23 +1156,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1223,7 +1211,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1235,13 +1223,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>27.298999999999999</v>
+        <v>28.103999999999999</v>
       </c>
       <c r="I2">
         <v>700</v>
       </c>
       <c r="J2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1261,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1273,13 +1261,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>25.963999999999999</v>
+        <v>28.213999999999999</v>
       </c>
       <c r="I3">
         <v>732</v>
       </c>
       <c r="J3">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1299,7 +1287,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1311,13 +1299,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>25.873000000000001</v>
+        <v>26.866</v>
       </c>
       <c r="I4">
         <v>728</v>
       </c>
       <c r="J4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1328,7 +1316,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1337,16 +1325,16 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
       </c>
       <c r="H5">
         <v>16.292000000000002</v>
@@ -1355,18 +1343,18 @@
         <v>704</v>
       </c>
       <c r="J5">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
         <v>37</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1375,36 +1363,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
       <c r="H6">
-        <v>29.696000000000002</v>
+        <v>30.81</v>
       </c>
       <c r="I6">
         <v>729</v>
       </c>
       <c r="J6">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
         <v>43</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1413,36 +1401,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
       <c r="H7">
-        <v>29.332000000000001</v>
+        <v>31.175999999999998</v>
       </c>
       <c r="I7">
         <v>732</v>
       </c>
       <c r="J7">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
         <v>49</v>
-      </c>
-      <c r="L7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1451,36 +1439,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
       <c r="H8">
-        <v>49.555</v>
+        <v>51.506999999999998</v>
       </c>
       <c r="I8">
         <v>732</v>
       </c>
       <c r="J8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1489,19 +1477,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
         <v>59</v>
       </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
       <c r="H9">
-        <v>29.443000000000001</v>
+        <v>30.366</v>
       </c>
       <c r="I9">
         <v>735</v>
@@ -1510,15 +1498,15 @@
         <v>72</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1527,36 +1515,36 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
       <c r="H10">
-        <v>37.000999999999998</v>
+        <v>37.951999999999998</v>
       </c>
       <c r="I10">
         <v>731</v>
       </c>
       <c r="J10">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1565,36 +1553,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
         <v>71</v>
       </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
       <c r="H11">
-        <v>35.308999999999997</v>
+        <v>35.738</v>
       </c>
       <c r="I11">
         <v>729</v>
       </c>
       <c r="J11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1606,33 +1594,33 @@
         <v>166</v>
       </c>
       <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>77</v>
       </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
       <c r="H12">
-        <v>32.646999999999998</v>
+        <v>34.607999999999997</v>
       </c>
       <c r="I12">
         <v>732</v>
       </c>
       <c r="J12">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" t="s">
         <v>79</v>
-      </c>
-      <c r="L12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1641,25 +1629,25 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
         <v>82</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>83</v>
       </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
       <c r="H13">
-        <v>33.149000000000001</v>
+        <v>34.353000000000002</v>
       </c>
       <c r="I13">
         <v>736</v>
       </c>
       <c r="J13">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s">
         <v>84</v>
@@ -1679,7 +1667,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -1691,13 +1679,13 @@
         <v>89</v>
       </c>
       <c r="H14">
-        <v>40.856000000000002</v>
+        <v>41.905000000000001</v>
       </c>
       <c r="I14">
         <v>738</v>
       </c>
       <c r="J14">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s">
         <v>90</v>
@@ -1717,7 +1705,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
         <v>93</v>
@@ -1729,13 +1717,13 @@
         <v>95</v>
       </c>
       <c r="H15">
-        <v>54.57</v>
+        <v>55.731000000000002</v>
       </c>
       <c r="I15">
         <v>730</v>
       </c>
       <c r="J15">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s">
         <v>96</v>

--- a/nurlita2.xlsx
+++ b/nurlita2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{445E1FB5-292C-4387-AB5F-87941BED4BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02AC7F5D-80BF-43F3-B275-88D3AB6AAB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -67,253 +67,253 @@
     <t>s1</t>
   </si>
   <si>
-    <t>114,588,488.00</t>
-  </si>
-  <si>
-    <t>496,525,037.00</t>
-  </si>
-  <si>
-    <t>23.08</t>
-  </si>
-  <si>
-    <t>14.97</t>
-  </si>
-  <si>
-    <t>14.86</t>
+    <t>118,289,594.00</t>
+  </si>
+  <si>
+    <t>519,349,563.00</t>
+  </si>
+  <si>
+    <t>22.78</t>
+  </si>
+  <si>
+    <t>15.46</t>
+  </si>
+  <si>
+    <t>14.89</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>104,830,232.00</t>
-  </si>
-  <si>
-    <t>530,700,183.00</t>
-  </si>
-  <si>
-    <t>19.75</t>
-  </si>
-  <si>
-    <t>13.32</t>
-  </si>
-  <si>
-    <t>14.48</t>
+    <t>105,348,110.00</t>
+  </si>
+  <si>
+    <t>557,259,323.00</t>
+  </si>
+  <si>
+    <t>18.90</t>
+  </si>
+  <si>
+    <t>12.77</t>
+  </si>
+  <si>
+    <t>14.02</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>123,088,293.00</t>
-  </si>
-  <si>
-    <t>516,061,290.00</t>
-  </si>
-  <si>
-    <t>23.85</t>
-  </si>
-  <si>
-    <t>14.57</t>
-  </si>
-  <si>
-    <t>15.38</t>
+    <t>135,011,735.00</t>
+  </si>
+  <si>
+    <t>544,268,176.00</t>
+  </si>
+  <si>
+    <t>24.81</t>
+  </si>
+  <si>
+    <t>15.59</t>
+  </si>
+  <si>
+    <t>15.13</t>
+  </si>
+  <si>
+    <t>22.12</t>
   </si>
   <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>97,087,037.00</t>
-  </si>
-  <si>
-    <t>492,928,251.00</t>
-  </si>
-  <si>
-    <t>19.70</t>
-  </si>
-  <si>
-    <t>13.95</t>
-  </si>
-  <si>
-    <t>12.93</t>
+    <t>98,258,183.00</t>
+  </si>
+  <si>
+    <t>515,051,499.00</t>
+  </si>
+  <si>
+    <t>19.08</t>
+  </si>
+  <si>
+    <t>13.44</t>
+  </si>
+  <si>
+    <t>12.65</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>103,844,593.00</t>
-  </si>
-  <si>
-    <t>547,851,088.00</t>
-  </si>
-  <si>
-    <t>18.95</t>
-  </si>
-  <si>
-    <t>11.53</t>
-  </si>
-  <si>
-    <t>10.84</t>
+    <t>110,966,007.00</t>
+  </si>
+  <si>
+    <t>574,485,748.00</t>
+  </si>
+  <si>
+    <t>19.32</t>
+  </si>
+  <si>
+    <t>12.12</t>
+  </si>
+  <si>
+    <t>11.17</t>
   </si>
   <si>
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>140,397,712.00</t>
-  </si>
-  <si>
-    <t>536,509,428.00</t>
-  </si>
-  <si>
-    <t>26.17</t>
-  </si>
-  <si>
-    <t>13.73</t>
-  </si>
-  <si>
-    <t>11.89</t>
+    <t>141,776,882.00</t>
+  </si>
+  <si>
+    <t>554,158,784.00</t>
+  </si>
+  <si>
+    <t>25.58</t>
+  </si>
+  <si>
+    <t>13.46</t>
+  </si>
+  <si>
+    <t>11.93</t>
+  </si>
+  <si>
+    <t>21.81</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>123,506,671.00</t>
-  </si>
-  <si>
-    <t>562,903,350.00</t>
-  </si>
-  <si>
-    <t>21.94</t>
-  </si>
-  <si>
-    <t>14.17</t>
-  </si>
-  <si>
-    <t>14.89</t>
+    <t>127,580,227.00</t>
+  </si>
+  <si>
+    <t>584,898,046.00</t>
+  </si>
+  <si>
+    <t>14.25</t>
+  </si>
+  <si>
+    <t>15.05</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>99,507,388.00</t>
-  </si>
-  <si>
-    <t>551,480,411.00</t>
-  </si>
-  <si>
-    <t>18.04</t>
-  </si>
-  <si>
-    <t>10.66</t>
-  </si>
-  <si>
-    <t>9.80</t>
+    <t>104,158,109.00</t>
+  </si>
+  <si>
+    <t>569,102,253.00</t>
+  </si>
+  <si>
+    <t>18.30</t>
+  </si>
+  <si>
+    <t>10.56</t>
+  </si>
+  <si>
+    <t>9.91</t>
   </si>
   <si>
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>137,792,690.00</t>
-  </si>
-  <si>
-    <t>534,643,664.00</t>
-  </si>
-  <si>
-    <t>25.77</t>
-  </si>
-  <si>
-    <t>14.69</t>
-  </si>
-  <si>
-    <t>16.42</t>
+    <t>138,544,134.00</t>
+  </si>
+  <si>
+    <t>557,149,223.00</t>
+  </si>
+  <si>
+    <t>24.87</t>
+  </si>
+  <si>
+    <t>14.30</t>
+  </si>
+  <si>
+    <t>16.01</t>
+  </si>
+  <si>
+    <t>23.29</t>
   </si>
   <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>128,401,131.00</t>
-  </si>
-  <si>
-    <t>546,168,257.00</t>
-  </si>
-  <si>
-    <t>23.51</t>
-  </si>
-  <si>
-    <t>13.80</t>
-  </si>
-  <si>
-    <t>15.64</t>
+    <t>133,055,097.00</t>
+  </si>
+  <si>
+    <t>571,383,046.00</t>
+  </si>
+  <si>
+    <t>13.89</t>
+  </si>
+  <si>
+    <t>15.49</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>110,460,538.00</t>
-  </si>
-  <si>
-    <t>541,797,311.00</t>
-  </si>
-  <si>
-    <t>20.39</t>
-  </si>
-  <si>
-    <t>13.15</t>
-  </si>
-  <si>
-    <t>13.66</t>
+    <t>111,142,117.00</t>
+  </si>
+  <si>
+    <t>576,369,065.00</t>
+  </si>
+  <si>
+    <t>19.28</t>
+  </si>
+  <si>
+    <t>12.53</t>
+  </si>
+  <si>
+    <t>13.35</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>116,127,459.00</t>
-  </si>
-  <si>
-    <t>529,573,730.00</t>
-  </si>
-  <si>
-    <t>21.93</t>
-  </si>
-  <si>
-    <t>14.93</t>
-  </si>
-  <si>
-    <t>13.45</t>
+    <t>117,899,706.00</t>
+  </si>
+  <si>
+    <t>558,298,546.00</t>
+  </si>
+  <si>
+    <t>21.12</t>
+  </si>
+  <si>
+    <t>14.27</t>
+  </si>
+  <si>
+    <t>12.89</t>
   </si>
   <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>119,412,718.00</t>
-  </si>
-  <si>
-    <t>529,964,396.00</t>
-  </si>
-  <si>
-    <t>22.53</t>
-  </si>
-  <si>
-    <t>11.30</t>
-  </si>
-  <si>
-    <t>12.74</t>
+    <t>121,404,888.00</t>
+  </si>
+  <si>
+    <t>548,937,630.00</t>
+  </si>
+  <si>
+    <t>11.34</t>
+  </si>
+  <si>
+    <t>12.73</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>136,054,366.00</t>
-  </si>
-  <si>
-    <t>535,710,779.00</t>
-  </si>
-  <si>
-    <t>25.40</t>
-  </si>
-  <si>
-    <t>13.86</t>
-  </si>
-  <si>
-    <t>10.68</t>
+    <t>138,083,712.00</t>
+  </si>
+  <si>
+    <t>556,862,111.00</t>
+  </si>
+  <si>
+    <t>24.80</t>
+  </si>
+  <si>
+    <t>13.77</t>
+  </si>
+  <si>
+    <t>10.76</t>
   </si>
 </sst>
 </file>
@@ -1161,6 +1161,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1211,7 +1225,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1223,13 +1237,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>28.103999999999999</v>
+        <v>29.02</v>
       </c>
       <c r="I2">
-        <v>700</v>
+        <v>732</v>
       </c>
       <c r="J2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1249,7 +1263,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1261,13 +1275,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>28.213999999999999</v>
+        <v>29.864000000000001</v>
       </c>
       <c r="I3">
-        <v>732</v>
+        <v>763</v>
       </c>
       <c r="J3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1287,7 +1301,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1299,13 +1313,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>26.866</v>
+        <v>28.489000000000001</v>
       </c>
       <c r="I4">
-        <v>728</v>
+        <v>760</v>
       </c>
       <c r="J4">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1316,7 +1330,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1325,36 +1339,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>16.292000000000002</v>
+        <v>17.395</v>
       </c>
       <c r="I5">
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="J5">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1363,36 +1377,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6">
-        <v>30.81</v>
+        <v>31.687000000000001</v>
       </c>
       <c r="I6">
-        <v>729</v>
+        <v>761</v>
       </c>
       <c r="J6">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1401,36 +1415,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7">
-        <v>31.175999999999998</v>
+        <v>31.882999999999999</v>
       </c>
       <c r="I7">
-        <v>732</v>
+        <v>763</v>
       </c>
       <c r="J7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1439,36 +1453,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
       <c r="H8">
-        <v>51.506999999999998</v>
+        <v>53.081000000000003</v>
       </c>
       <c r="I8">
-        <v>732</v>
+        <v>764</v>
       </c>
       <c r="J8">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1477,36 +1491,36 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9">
-        <v>30.366</v>
+        <v>31.408999999999999</v>
       </c>
       <c r="I9">
-        <v>735</v>
+        <v>767</v>
       </c>
       <c r="J9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1515,36 +1529,36 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10">
-        <v>37.951999999999998</v>
+        <v>39.783000000000001</v>
       </c>
       <c r="I10">
-        <v>731</v>
+        <v>762</v>
       </c>
       <c r="J10">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1553,36 +1567,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
         <v>69</v>
       </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
       <c r="H11">
-        <v>35.738</v>
+        <v>37.488</v>
       </c>
       <c r="I11">
-        <v>729</v>
+        <v>762</v>
       </c>
       <c r="J11">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1591,36 +1605,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12">
-        <v>34.607999999999997</v>
+        <v>35.335999999999999</v>
       </c>
       <c r="I12">
-        <v>732</v>
+        <v>764</v>
       </c>
       <c r="J12">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1629,36 +1643,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13">
-        <v>34.353000000000002</v>
+        <v>35.262</v>
       </c>
       <c r="I13">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="J13">
         <v>99</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1667,25 +1681,25 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>41.905000000000001</v>
+        <v>42.828000000000003</v>
       </c>
       <c r="I14">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="J14">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K14" t="s">
         <v>90</v>
@@ -1705,7 +1719,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
         <v>93</v>
@@ -1717,13 +1731,13 @@
         <v>95</v>
       </c>
       <c r="H15">
-        <v>55.731000000000002</v>
+        <v>58.093000000000004</v>
       </c>
       <c r="I15">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="J15">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s">
         <v>96</v>

--- a/nurlita2.xlsx
+++ b/nurlita2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02AC7F5D-80BF-43F3-B275-88D3AB6AAB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4D760192-983F-40CF-84C1-6CB8D77792C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -67,34 +67,34 @@
     <t>s1</t>
   </si>
   <si>
-    <t>118,289,594.00</t>
+    <t>120,255,429.00</t>
   </si>
   <si>
     <t>519,349,563.00</t>
   </si>
   <si>
-    <t>22.78</t>
-  </si>
-  <si>
-    <t>15.46</t>
-  </si>
-  <si>
-    <t>14.89</t>
+    <t>23.16</t>
+  </si>
+  <si>
+    <t>15.50</t>
+  </si>
+  <si>
+    <t>15.16</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>105,348,110.00</t>
+    <t>110,414,312.00</t>
   </si>
   <si>
     <t>557,259,323.00</t>
   </si>
   <si>
-    <t>18.90</t>
-  </si>
-  <si>
-    <t>12.77</t>
+    <t>19.81</t>
+  </si>
+  <si>
+    <t>12.83</t>
   </si>
   <si>
     <t>14.02</t>
@@ -103,106 +103,106 @@
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>135,011,735.00</t>
+    <t>139,678,680.00</t>
   </si>
   <si>
     <t>544,268,176.00</t>
   </si>
   <si>
-    <t>24.81</t>
-  </si>
-  <si>
-    <t>15.59</t>
-  </si>
-  <si>
-    <t>15.13</t>
-  </si>
-  <si>
-    <t>22.12</t>
+    <t>25.66</t>
+  </si>
+  <si>
+    <t>15.78</t>
+  </si>
+  <si>
+    <t>15.26</t>
+  </si>
+  <si>
+    <t>13.81</t>
+  </si>
+  <si>
+    <t>21.18</t>
   </si>
   <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>98,258,183.00</t>
+    <t>99,381,660.00</t>
   </si>
   <si>
     <t>515,051,499.00</t>
   </si>
   <si>
-    <t>19.08</t>
-  </si>
-  <si>
-    <t>13.44</t>
-  </si>
-  <si>
-    <t>12.65</t>
+    <t>19.30</t>
+  </si>
+  <si>
+    <t>13.61</t>
+  </si>
+  <si>
+    <t>12.79</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>110,966,007.00</t>
+    <t>112,976,560.00</t>
   </si>
   <si>
     <t>574,485,748.00</t>
   </si>
   <si>
-    <t>19.32</t>
-  </si>
-  <si>
-    <t>12.12</t>
-  </si>
-  <si>
-    <t>11.17</t>
+    <t>19.67</t>
+  </si>
+  <si>
+    <t>12.30</t>
+  </si>
+  <si>
+    <t>11.30</t>
   </si>
   <si>
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>141,776,882.00</t>
+    <t>148,622,061.00</t>
   </si>
   <si>
     <t>554,158,784.00</t>
   </si>
   <si>
-    <t>25.58</t>
-  </si>
-  <si>
-    <t>13.46</t>
-  </si>
-  <si>
-    <t>11.93</t>
-  </si>
-  <si>
-    <t>21.81</t>
+    <t>26.82</t>
+  </si>
+  <si>
+    <t>12.32</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>127,580,227.00</t>
+    <t>131,329,118.00</t>
   </si>
   <si>
     <t>584,898,046.00</t>
   </si>
   <si>
-    <t>14.25</t>
-  </si>
-  <si>
-    <t>15.05</t>
+    <t>22.45</t>
+  </si>
+  <si>
+    <t>14.28</t>
+  </si>
+  <si>
+    <t>15.18</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>104,158,109.00</t>
+    <t>105,951,138.00</t>
   </si>
   <si>
     <t>569,102,253.00</t>
   </si>
   <si>
-    <t>18.30</t>
+    <t>18.62</t>
   </si>
   <si>
     <t>10.56</t>
@@ -214,13 +214,13 @@
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>138,544,134.00</t>
+    <t>138,844,168.00</t>
   </si>
   <si>
     <t>557,149,223.00</t>
   </si>
   <si>
-    <t>24.87</t>
+    <t>24.92</t>
   </si>
   <si>
     <t>14.30</t>
@@ -229,54 +229,51 @@
     <t>16.01</t>
   </si>
   <si>
-    <t>23.29</t>
-  </si>
-  <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>133,055,097.00</t>
+    <t>135,116,349.00</t>
   </si>
   <si>
     <t>571,383,046.00</t>
   </si>
   <si>
-    <t>13.89</t>
-  </si>
-  <si>
-    <t>15.49</t>
+    <t>23.65</t>
+  </si>
+  <si>
+    <t>14.01</t>
+  </si>
+  <si>
+    <t>15.62</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>111,142,117.00</t>
+    <t>117,305,711.00</t>
   </si>
   <si>
     <t>576,369,065.00</t>
   </si>
   <si>
-    <t>19.28</t>
-  </si>
-  <si>
-    <t>12.53</t>
-  </si>
-  <si>
-    <t>13.35</t>
+    <t>20.35</t>
+  </si>
+  <si>
+    <t>12.60</t>
+  </si>
+  <si>
+    <t>13.48</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>117,899,706.00</t>
+    <t>118,263,706.00</t>
   </si>
   <si>
     <t>558,298,546.00</t>
   </si>
   <si>
-    <t>21.12</t>
-  </si>
-  <si>
     <t>14.27</t>
   </si>
   <si>
@@ -286,28 +283,31 @@
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>121,404,888.00</t>
+    <t>125,954,135.00</t>
   </si>
   <si>
     <t>548,937,630.00</t>
   </si>
   <si>
-    <t>11.34</t>
-  </si>
-  <si>
-    <t>12.73</t>
+    <t>22.95</t>
+  </si>
+  <si>
+    <t>11.71</t>
+  </si>
+  <si>
+    <t>12.86</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>138,083,712.00</t>
+    <t>142,987,111.00</t>
   </si>
   <si>
     <t>556,862,111.00</t>
   </si>
   <si>
-    <t>24.80</t>
+    <t>25.68</t>
   </si>
   <si>
     <t>13.77</t>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1225,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1237,13 +1237,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>29.02</v>
+        <v>29.294</v>
       </c>
       <c r="I2">
         <v>732</v>
       </c>
       <c r="J2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1263,7 +1263,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1275,7 +1275,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>29.864000000000001</v>
+        <v>30.061</v>
       </c>
       <c r="I3">
         <v>763</v>
@@ -1301,7 +1301,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1313,13 +1313,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>28.489000000000001</v>
+        <v>28.576000000000001</v>
       </c>
       <c r="I4">
         <v>760</v>
       </c>
       <c r="J4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1339,36 +1339,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>17.395</v>
+        <v>17.678999999999998</v>
       </c>
       <c r="I5">
         <v>735</v>
       </c>
       <c r="J5">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1377,36 +1377,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>31.687000000000001</v>
+        <v>32.247</v>
       </c>
       <c r="I6">
         <v>761</v>
       </c>
       <c r="J6">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1415,28 +1415,28 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7">
-        <v>31.882999999999999</v>
+        <v>32.04</v>
       </c>
       <c r="I7">
         <v>763</v>
       </c>
       <c r="J7">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
         <v>50</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1456,22 +1456,22 @@
         <v>193</v>
       </c>
       <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>54</v>
       </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
       <c r="H8">
-        <v>53.081000000000003</v>
+        <v>53.64</v>
       </c>
       <c r="I8">
         <v>764</v>
       </c>
       <c r="J8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K8" t="s">
         <v>55</v>
@@ -1491,7 +1491,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
         <v>58</v>
@@ -1503,7 +1503,7 @@
         <v>60</v>
       </c>
       <c r="H9">
-        <v>31.408999999999999</v>
+        <v>31.731000000000002</v>
       </c>
       <c r="I9">
         <v>767</v>
@@ -1529,7 +1529,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
         <v>64</v>
@@ -1541,7 +1541,7 @@
         <v>66</v>
       </c>
       <c r="H10">
-        <v>39.783000000000001</v>
+        <v>40.296999999999997</v>
       </c>
       <c r="I10">
         <v>762</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1567,25 +1567,25 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
         <v>71</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>72</v>
       </c>
-      <c r="G11" t="s">
-        <v>69</v>
-      </c>
       <c r="H11">
-        <v>37.488</v>
+        <v>38.154000000000003</v>
       </c>
       <c r="I11">
         <v>762</v>
       </c>
       <c r="J11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
         <v>73</v>
@@ -1605,7 +1605,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
         <v>76</v>
@@ -1617,13 +1617,13 @@
         <v>78</v>
       </c>
       <c r="H12">
-        <v>35.335999999999999</v>
+        <v>35.433999999999997</v>
       </c>
       <c r="I12">
         <v>764</v>
       </c>
       <c r="J12">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
         <v>79</v>
@@ -1652,10 +1652,10 @@
         <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>35.262</v>
+        <v>35.512</v>
       </c>
       <c r="I13">
         <v>768</v>
@@ -1664,15 +1664,15 @@
         <v>99</v>
       </c>
       <c r="K13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" t="s">
         <v>85</v>
-      </c>
-      <c r="L13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1681,25 +1681,25 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
         <v>88</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>89</v>
       </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
       <c r="H14">
-        <v>42.828000000000003</v>
+        <v>42.881</v>
       </c>
       <c r="I14">
         <v>770</v>
       </c>
       <c r="J14">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" t="s">
         <v>90</v>
@@ -1719,7 +1719,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E15" t="s">
         <v>93</v>
@@ -1731,7 +1731,7 @@
         <v>95</v>
       </c>
       <c r="H15">
-        <v>58.093000000000004</v>
+        <v>58.143000000000001</v>
       </c>
       <c r="I15">
         <v>762</v>

--- a/nurlita2.xlsx
+++ b/nurlita2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4D760192-983F-40CF-84C1-6CB8D77792C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F98CB0-540F-4499-A662-B85066DCBFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="97">
   <si>
     <t>Collector</t>
   </si>
@@ -67,16 +67,16 @@
     <t>s1</t>
   </si>
   <si>
-    <t>120,255,429.00</t>
-  </si>
-  <si>
-    <t>519,349,563.00</t>
-  </si>
-  <si>
-    <t>23.16</t>
-  </si>
-  <si>
-    <t>15.50</t>
+    <t>120,963,841.00</t>
+  </si>
+  <si>
+    <t>539,858,382.00</t>
+  </si>
+  <si>
+    <t>22.41</t>
+  </si>
+  <si>
+    <t>15.11</t>
   </si>
   <si>
     <t>15.16</t>
@@ -85,235 +85,232 @@
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>110,414,312.00</t>
-  </si>
-  <si>
-    <t>557,259,323.00</t>
-  </si>
-  <si>
-    <t>19.81</t>
-  </si>
-  <si>
-    <t>12.83</t>
-  </si>
-  <si>
-    <t>14.02</t>
+    <t>112,283,416.00</t>
+  </si>
+  <si>
+    <t>579,124,597.00</t>
+  </si>
+  <si>
+    <t>19.39</t>
+  </si>
+  <si>
+    <t>13.08</t>
+  </si>
+  <si>
+    <t>13.69</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>139,678,680.00</t>
-  </si>
-  <si>
-    <t>544,268,176.00</t>
-  </si>
-  <si>
-    <t>25.66</t>
-  </si>
-  <si>
-    <t>15.78</t>
-  </si>
-  <si>
-    <t>15.26</t>
-  </si>
-  <si>
-    <t>13.81</t>
-  </si>
-  <si>
-    <t>21.18</t>
+    <t>142,549,052.00</t>
+  </si>
+  <si>
+    <t>568,125,318.00</t>
+  </si>
+  <si>
+    <t>25.09</t>
+  </si>
+  <si>
+    <t>15.86</t>
+  </si>
+  <si>
+    <t>15.24</t>
   </si>
   <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>99,381,660.00</t>
-  </si>
-  <si>
-    <t>515,051,499.00</t>
-  </si>
-  <si>
-    <t>19.30</t>
-  </si>
-  <si>
-    <t>13.61</t>
-  </si>
-  <si>
-    <t>12.79</t>
+    <t>100,538,575.00</t>
+  </si>
+  <si>
+    <t>536,781,048.00</t>
+  </si>
+  <si>
+    <t>18.73</t>
+  </si>
+  <si>
+    <t>13.24</t>
+  </si>
+  <si>
+    <t>12.50</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>112,976,560.00</t>
-  </si>
-  <si>
-    <t>574,485,748.00</t>
-  </si>
-  <si>
-    <t>19.67</t>
-  </si>
-  <si>
-    <t>12.30</t>
-  </si>
-  <si>
-    <t>11.30</t>
+    <t>114,819,928.00</t>
+  </si>
+  <si>
+    <t>592,869,325.00</t>
+  </si>
+  <si>
+    <t>19.37</t>
+  </si>
+  <si>
+    <t>12.23</t>
+  </si>
+  <si>
+    <t>11.46</t>
   </si>
   <si>
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>148,622,061.00</t>
-  </si>
-  <si>
-    <t>554,158,784.00</t>
-  </si>
-  <si>
-    <t>26.82</t>
-  </si>
-  <si>
-    <t>12.32</t>
+    <t>150,317,658.00</t>
+  </si>
+  <si>
+    <t>579,199,272.00</t>
+  </si>
+  <si>
+    <t>25.95</t>
+  </si>
+  <si>
+    <t>13.47</t>
+  </si>
+  <si>
+    <t>12.28</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>131,329,118.00</t>
-  </si>
-  <si>
-    <t>584,898,046.00</t>
-  </si>
-  <si>
-    <t>22.45</t>
-  </si>
-  <si>
-    <t>14.28</t>
-  </si>
-  <si>
-    <t>15.18</t>
+    <t>131,781,570.00</t>
+  </si>
+  <si>
+    <t>615,572,081.00</t>
+  </si>
+  <si>
+    <t>21.41</t>
+  </si>
+  <si>
+    <t>13.68</t>
+  </si>
+  <si>
+    <t>14.64</t>
+  </si>
+  <si>
+    <t>21.01</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>105,951,138.00</t>
-  </si>
-  <si>
-    <t>569,102,253.00</t>
-  </si>
-  <si>
-    <t>18.62</t>
-  </si>
-  <si>
-    <t>10.56</t>
-  </si>
-  <si>
-    <t>9.91</t>
+    <t>107,372,529.00</t>
+  </si>
+  <si>
+    <t>589,309,709.00</t>
+  </si>
+  <si>
+    <t>18.22</t>
+  </si>
+  <si>
+    <t>10.51</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.80</t>
   </si>
   <si>
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>138,844,168.00</t>
-  </si>
-  <si>
-    <t>557,149,223.00</t>
-  </si>
-  <si>
-    <t>24.92</t>
-  </si>
-  <si>
-    <t>14.30</t>
-  </si>
-  <si>
-    <t>16.01</t>
+    <t>141,768,753.00</t>
+  </si>
+  <si>
+    <t>579,766,047.00</t>
+  </si>
+  <si>
+    <t>24.45</t>
+  </si>
+  <si>
+    <t>14.20</t>
+  </si>
+  <si>
+    <t>16.08</t>
+  </si>
+  <si>
+    <t>19.96</t>
   </si>
   <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>135,116,349.00</t>
-  </si>
-  <si>
-    <t>571,383,046.00</t>
-  </si>
-  <si>
-    <t>23.65</t>
-  </si>
-  <si>
-    <t>14.01</t>
-  </si>
-  <si>
-    <t>15.62</t>
+    <t>135,555,814.00</t>
+  </si>
+  <si>
+    <t>594,923,093.00</t>
+  </si>
+  <si>
+    <t>22.79</t>
+  </si>
+  <si>
+    <t>13.58</t>
+  </si>
+  <si>
+    <t>15.22</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>117,305,711.00</t>
-  </si>
-  <si>
-    <t>576,369,065.00</t>
-  </si>
-  <si>
-    <t>20.35</t>
-  </si>
-  <si>
-    <t>12.60</t>
-  </si>
-  <si>
-    <t>13.48</t>
+    <t>119,221,601.00</t>
+  </si>
+  <si>
+    <t>597,347,283.00</t>
+  </si>
+  <si>
+    <t>13.11</t>
+  </si>
+  <si>
+    <t>13.43</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>118,263,706.00</t>
-  </si>
-  <si>
-    <t>558,298,546.00</t>
-  </si>
-  <si>
-    <t>14.27</t>
-  </si>
-  <si>
-    <t>12.89</t>
+    <t>122,426,879.00</t>
+  </si>
+  <si>
+    <t>582,804,902.00</t>
+  </si>
+  <si>
+    <t>14.13</t>
+  </si>
+  <si>
+    <t>12.95</t>
   </si>
   <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>125,954,135.00</t>
-  </si>
-  <si>
-    <t>548,937,630.00</t>
-  </si>
-  <si>
-    <t>22.95</t>
-  </si>
-  <si>
-    <t>11.71</t>
-  </si>
-  <si>
-    <t>12.86</t>
+    <t>127,036,344.00</t>
+  </si>
+  <si>
+    <t>570,450,283.00</t>
+  </si>
+  <si>
+    <t>22.27</t>
+  </si>
+  <si>
+    <t>11.43</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>142,987,111.00</t>
-  </si>
-  <si>
-    <t>556,862,111.00</t>
-  </si>
-  <si>
-    <t>25.68</t>
-  </si>
-  <si>
-    <t>13.77</t>
-  </si>
-  <si>
-    <t>10.76</t>
+    <t>145,272,120.00</t>
+  </si>
+  <si>
+    <t>576,420,698.00</t>
+  </si>
+  <si>
+    <t>25.20</t>
+  </si>
+  <si>
+    <t>13.67</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1154,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection sqref="A1:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1222,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1237,13 +1234,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>29.294</v>
+        <v>30.068000000000001</v>
       </c>
       <c r="I2">
-        <v>732</v>
+        <v>765</v>
       </c>
       <c r="J2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1263,7 +1260,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1275,13 +1272,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>30.061</v>
+        <v>30.672999999999998</v>
       </c>
       <c r="I3">
-        <v>763</v>
+        <v>796</v>
       </c>
       <c r="J3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1301,7 +1298,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1313,13 +1310,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>28.576000000000001</v>
+        <v>29.373000000000001</v>
       </c>
       <c r="I4">
-        <v>760</v>
+        <v>794</v>
       </c>
       <c r="J4">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1330,7 +1327,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1339,36 +1336,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5">
+        <v>18.099</v>
+      </c>
+      <c r="I5">
+        <v>768</v>
+      </c>
+      <c r="J5">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+      <c r="L5" t="s">
         <v>37</v>
-      </c>
-      <c r="H5">
-        <v>17.678999999999998</v>
-      </c>
-      <c r="I5">
-        <v>735</v>
-      </c>
-      <c r="J5">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1377,36 +1374,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6">
+        <v>33.170999999999999</v>
+      </c>
+      <c r="I6">
+        <v>794</v>
+      </c>
+      <c r="J6">
+        <v>91</v>
+      </c>
+      <c r="K6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
         <v>43</v>
-      </c>
-      <c r="H6">
-        <v>32.247</v>
-      </c>
-      <c r="I6">
-        <v>761</v>
-      </c>
-      <c r="J6">
-        <v>86</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1415,36 +1412,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7">
+        <v>32.345999999999997</v>
+      </c>
+      <c r="I7">
+        <v>798</v>
+      </c>
+      <c r="J7">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="s">
+      <c r="L7" t="s">
         <v>49</v>
-      </c>
-      <c r="H7">
-        <v>32.04</v>
-      </c>
-      <c r="I7">
-        <v>763</v>
-      </c>
-      <c r="J7">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1453,31 +1450,31 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8">
+        <v>55.5</v>
+      </c>
+      <c r="I8">
+        <v>799</v>
+      </c>
+      <c r="J8">
+        <v>117</v>
+      </c>
+      <c r="K8" t="s">
         <v>54</v>
       </c>
-      <c r="H8">
-        <v>53.64</v>
-      </c>
-      <c r="I8">
-        <v>764</v>
-      </c>
-      <c r="J8">
-        <v>116</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1491,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
         <v>58</v>
@@ -1503,13 +1500,13 @@
         <v>60</v>
       </c>
       <c r="H9">
-        <v>31.731000000000002</v>
+        <v>32.625999999999998</v>
       </c>
       <c r="I9">
-        <v>767</v>
+        <v>800</v>
       </c>
       <c r="J9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
         <v>61</v>
@@ -1520,7 +1517,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1529,36 +1526,36 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H10">
-        <v>40.296999999999997</v>
+        <v>41.828000000000003</v>
       </c>
       <c r="I10">
-        <v>762</v>
+        <v>796</v>
       </c>
       <c r="J10">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1567,36 +1564,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H11">
-        <v>38.154000000000003</v>
+        <v>38.747</v>
       </c>
       <c r="I11">
-        <v>762</v>
+        <v>795</v>
       </c>
       <c r="J11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1605,36 +1602,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H12">
-        <v>35.433999999999997</v>
+        <v>36.302</v>
       </c>
       <c r="I12">
-        <v>764</v>
+        <v>797</v>
       </c>
       <c r="J12">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1643,36 +1640,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H13">
-        <v>35.512</v>
+        <v>36.618000000000002</v>
       </c>
       <c r="I13">
-        <v>768</v>
+        <v>803</v>
       </c>
       <c r="J13">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1681,31 +1678,31 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14">
-        <v>42.881</v>
+        <v>43.569000000000003</v>
       </c>
       <c r="I14">
-        <v>770</v>
+        <v>803</v>
       </c>
       <c r="J14">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1719,7 +1716,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E15" t="s">
         <v>93</v>
@@ -1731,19 +1728,19 @@
         <v>95</v>
       </c>
       <c r="H15">
-        <v>58.143000000000001</v>
+        <v>59.347000000000001</v>
       </c>
       <c r="I15">
-        <v>762</v>
+        <v>796</v>
       </c>
       <c r="J15">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s">
         <v>96</v>
       </c>
       <c r="L15" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/nurlita2.xlsx
+++ b/nurlita2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F98CB0-540F-4499-A662-B85066DCBFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4E71936-45D1-4A69-BB15-C34433FB3E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
   <si>
     <t>Collector</t>
   </si>
@@ -67,250 +67,253 @@
     <t>s1</t>
   </si>
   <si>
-    <t>120,963,841.00</t>
+    <t>123,852,103.00</t>
   </si>
   <si>
     <t>539,858,382.00</t>
   </si>
   <si>
-    <t>22.41</t>
-  </si>
-  <si>
-    <t>15.11</t>
-  </si>
-  <si>
-    <t>15.16</t>
+    <t>22.94</t>
+  </si>
+  <si>
+    <t>15.15</t>
+  </si>
+  <si>
+    <t>15.29</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>112,283,416.00</t>
+    <t>115,653,756.00</t>
   </si>
   <si>
     <t>579,124,597.00</t>
   </si>
   <si>
-    <t>19.39</t>
-  </si>
-  <si>
-    <t>13.08</t>
-  </si>
-  <si>
-    <t>13.69</t>
+    <t>19.97</t>
+  </si>
+  <si>
+    <t>13.43</t>
+  </si>
+  <si>
+    <t>13.94</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>142,549,052.00</t>
+    <t>144,865,306.00</t>
   </si>
   <si>
     <t>568,125,318.00</t>
   </si>
   <si>
-    <t>25.09</t>
-  </si>
-  <si>
-    <t>15.86</t>
-  </si>
-  <si>
-    <t>15.24</t>
+    <t>25.50</t>
+  </si>
+  <si>
+    <t>15.95</t>
+  </si>
+  <si>
+    <t>15.49</t>
   </si>
   <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>100,538,575.00</t>
+    <t>102,001,161.00</t>
   </si>
   <si>
     <t>536,781,048.00</t>
   </si>
   <si>
-    <t>18.73</t>
-  </si>
-  <si>
-    <t>13.24</t>
-  </si>
-  <si>
-    <t>12.50</t>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>13.39</t>
+  </si>
+  <si>
+    <t>12.76</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>114,819,928.00</t>
+    <t>118,228,866.00</t>
   </si>
   <si>
     <t>592,869,325.00</t>
   </si>
   <si>
-    <t>19.37</t>
-  </si>
-  <si>
-    <t>12.23</t>
-  </si>
-  <si>
-    <t>11.46</t>
+    <t>19.94</t>
+  </si>
+  <si>
+    <t>12.45</t>
+  </si>
+  <si>
+    <t>12.09</t>
   </si>
   <si>
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>150,317,658.00</t>
+    <t>151,065,305.00</t>
   </si>
   <si>
     <t>579,199,272.00</t>
   </si>
   <si>
-    <t>25.95</t>
-  </si>
-  <si>
-    <t>13.47</t>
-  </si>
-  <si>
-    <t>12.28</t>
+    <t>26.08</t>
+  </si>
+  <si>
+    <t>13.52</t>
+  </si>
+  <si>
+    <t>12.41</t>
+  </si>
+  <si>
+    <t>21.87</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>131,781,570.00</t>
+    <t>134,635,427.00</t>
   </si>
   <si>
     <t>615,572,081.00</t>
   </si>
   <si>
-    <t>21.41</t>
-  </si>
-  <si>
-    <t>13.68</t>
-  </si>
-  <si>
-    <t>14.64</t>
-  </si>
-  <si>
-    <t>21.01</t>
+    <t>13.84</t>
+  </si>
+  <si>
+    <t>14.89</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>107,372,529.00</t>
+    <t>110,136,941.00</t>
   </si>
   <si>
     <t>589,309,709.00</t>
   </si>
   <si>
-    <t>18.22</t>
-  </si>
-  <si>
-    <t>10.51</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.80</t>
+    <t>18.69</t>
+  </si>
+  <si>
+    <t>10.78</t>
+  </si>
+  <si>
+    <t>10.75</t>
   </si>
   <si>
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>141,768,753.00</t>
+    <t>146,746,736.00</t>
   </si>
   <si>
     <t>579,766,047.00</t>
   </si>
   <si>
-    <t>24.45</t>
-  </si>
-  <si>
-    <t>14.20</t>
-  </si>
-  <si>
-    <t>16.08</t>
-  </si>
-  <si>
-    <t>19.96</t>
+    <t>25.31</t>
+  </si>
+  <si>
+    <t>14.35</t>
+  </si>
+  <si>
+    <t>16.46</t>
   </si>
   <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>135,555,814.00</t>
+    <t>146,067,991.00</t>
   </si>
   <si>
     <t>594,923,093.00</t>
   </si>
   <si>
-    <t>22.79</t>
-  </si>
-  <si>
-    <t>13.58</t>
-  </si>
-  <si>
-    <t>15.22</t>
+    <t>24.55</t>
+  </si>
+  <si>
+    <t>14.29</t>
+  </si>
+  <si>
+    <t>15.85</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>119,221,601.00</t>
+    <t>121,060,527.00</t>
   </si>
   <si>
     <t>597,347,283.00</t>
   </si>
   <si>
-    <t>13.11</t>
-  </si>
-  <si>
-    <t>13.43</t>
+    <t>20.27</t>
+  </si>
+  <si>
+    <t>13.20</t>
+  </si>
+  <si>
+    <t>13.80</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>122,426,879.00</t>
+    <t>125,642,039.00</t>
   </si>
   <si>
     <t>582,804,902.00</t>
   </si>
   <si>
-    <t>14.13</t>
-  </si>
-  <si>
-    <t>12.95</t>
+    <t>21.56</t>
+  </si>
+  <si>
+    <t>14.38</t>
+  </si>
+  <si>
+    <t>13.57</t>
   </si>
   <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>127,036,344.00</t>
+    <t>129,742,447.00</t>
   </si>
   <si>
     <t>570,450,283.00</t>
   </si>
   <si>
-    <t>22.27</t>
-  </si>
-  <si>
-    <t>11.43</t>
+    <t>22.74</t>
+  </si>
+  <si>
+    <t>11.52</t>
+  </si>
+  <si>
+    <t>13.33</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>145,272,120.00</t>
+    <t>148,003,578.00</t>
   </si>
   <si>
     <t>576,420,698.00</t>
   </si>
   <si>
-    <t>25.20</t>
-  </si>
-  <si>
-    <t>13.67</t>
+    <t>25.68</t>
+  </si>
+  <si>
+    <t>13.78</t>
+  </si>
+  <si>
+    <t>11.06</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1225,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1234,13 +1237,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>30.068000000000001</v>
+        <v>33.354999999999997</v>
       </c>
       <c r="I2">
         <v>765</v>
       </c>
       <c r="J2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1260,7 +1263,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1272,13 +1275,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>30.672999999999998</v>
+        <v>30.991</v>
       </c>
       <c r="I3">
         <v>796</v>
       </c>
       <c r="J3">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1298,7 +1301,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1310,13 +1313,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>29.373000000000001</v>
+        <v>30.26</v>
       </c>
       <c r="I4">
         <v>794</v>
       </c>
       <c r="J4">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1336,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1348,13 +1351,13 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>18.099</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="I5">
         <v>768</v>
       </c>
       <c r="J5">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
@@ -1374,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1386,13 +1389,13 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>33.170999999999999</v>
+        <v>34.418999999999997</v>
       </c>
       <c r="I6">
         <v>794</v>
       </c>
       <c r="J6">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
         <v>42</v>
@@ -1412,7 +1415,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1424,13 +1427,13 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>32.345999999999997</v>
+        <v>32.862000000000002</v>
       </c>
       <c r="I7">
         <v>798</v>
       </c>
       <c r="J7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
         <v>48</v>
@@ -1441,7 +1444,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1450,25 +1453,25 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>55.5</v>
+        <v>57.741</v>
       </c>
       <c r="I8">
         <v>799</v>
       </c>
       <c r="J8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" t="s">
         <v>54</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1488,36 +1491,36 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
         <v>58</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>59</v>
       </c>
-      <c r="G9" t="s">
-        <v>60</v>
-      </c>
       <c r="H9">
-        <v>32.625999999999998</v>
+        <v>34.546999999999997</v>
       </c>
       <c r="I9">
         <v>800</v>
       </c>
       <c r="J9">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" t="s">
         <v>61</v>
-      </c>
-      <c r="L9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1526,36 +1529,36 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
       <c r="H10">
-        <v>41.828000000000003</v>
+        <v>43.19</v>
       </c>
       <c r="I10">
         <v>796</v>
       </c>
       <c r="J10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1564,36 +1567,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H11">
-        <v>38.747</v>
+        <v>40.686999999999998</v>
       </c>
       <c r="I11">
         <v>795</v>
       </c>
       <c r="J11">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1602,36 +1605,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H12">
-        <v>36.302</v>
+        <v>37.368000000000002</v>
       </c>
       <c r="I12">
         <v>797</v>
       </c>
       <c r="J12">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1640,36 +1643,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
         <v>83</v>
       </c>
-      <c r="F13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
       <c r="H13">
-        <v>36.618000000000002</v>
+        <v>37.497</v>
       </c>
       <c r="I13">
         <v>803</v>
       </c>
       <c r="J13">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" t="s">
         <v>85</v>
-      </c>
-      <c r="L13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1678,31 +1681,31 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
         <v>88</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>89</v>
       </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
       <c r="H14">
-        <v>43.569000000000003</v>
+        <v>44.610999999999997</v>
       </c>
       <c r="I14">
         <v>803</v>
       </c>
       <c r="J14">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1716,7 +1719,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
         <v>93</v>
@@ -1728,19 +1731,19 @@
         <v>95</v>
       </c>
       <c r="H15">
-        <v>59.347000000000001</v>
+        <v>61.04</v>
       </c>
       <c r="I15">
         <v>796</v>
       </c>
       <c r="J15">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
         <v>96</v>
       </c>
       <c r="L15" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/nurlita2.xlsx
+++ b/nurlita2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4E71936-45D1-4A69-BB15-C34433FB3E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E010246-47B6-4F5C-A92B-A3FFEA6E7D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="97">
   <si>
     <t>Collector</t>
   </si>
@@ -67,253 +67,250 @@
     <t>s1</t>
   </si>
   <si>
-    <t>123,852,103.00</t>
-  </si>
-  <si>
-    <t>539,858,382.00</t>
-  </si>
-  <si>
-    <t>22.94</t>
-  </si>
-  <si>
-    <t>15.15</t>
-  </si>
-  <si>
-    <t>15.29</t>
+    <t>126,252,206.00</t>
+  </si>
+  <si>
+    <t>562,178,949.00</t>
+  </si>
+  <si>
+    <t>22.46</t>
+  </si>
+  <si>
+    <t>14.84</t>
+  </si>
+  <si>
+    <t>14.86</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>115,653,756.00</t>
-  </si>
-  <si>
-    <t>579,124,597.00</t>
-  </si>
-  <si>
-    <t>19.97</t>
-  </si>
-  <si>
-    <t>13.43</t>
-  </si>
-  <si>
-    <t>13.94</t>
+    <t>116,010,835.00</t>
+  </si>
+  <si>
+    <t>597,859,581.00</t>
+  </si>
+  <si>
+    <t>19.40</t>
+  </si>
+  <si>
+    <t>13.11</t>
+  </si>
+  <si>
+    <t>13.58</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>144,865,306.00</t>
-  </si>
-  <si>
-    <t>568,125,318.00</t>
-  </si>
-  <si>
-    <t>25.50</t>
-  </si>
-  <si>
-    <t>15.95</t>
-  </si>
-  <si>
-    <t>15.49</t>
+    <t>148,855,617.00</t>
+  </si>
+  <si>
+    <t>589,570,301.00</t>
+  </si>
+  <si>
+    <t>25.25</t>
+  </si>
+  <si>
+    <t>15.84</t>
+  </si>
+  <si>
+    <t>15.19</t>
+  </si>
+  <si>
+    <t>21.10</t>
+  </si>
+  <si>
+    <t>22.07</t>
   </si>
   <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>102,001,161.00</t>
-  </si>
-  <si>
-    <t>536,781,048.00</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>13.39</t>
-  </si>
-  <si>
-    <t>12.76</t>
+    <t>105,098,805.00</t>
+  </si>
+  <si>
+    <t>559,642,612.00</t>
+  </si>
+  <si>
+    <t>18.78</t>
+  </si>
+  <si>
+    <t>13.08</t>
+  </si>
+  <si>
+    <t>12.42</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>118,228,866.00</t>
-  </si>
-  <si>
-    <t>592,869,325.00</t>
-  </si>
-  <si>
-    <t>19.94</t>
-  </si>
-  <si>
-    <t>12.45</t>
-  </si>
-  <si>
-    <t>12.09</t>
+    <t>119,885,906.00</t>
+  </si>
+  <si>
+    <t>611,808,182.00</t>
+  </si>
+  <si>
+    <t>19.60</t>
+  </si>
+  <si>
+    <t>12.21</t>
+  </si>
+  <si>
+    <t>11.79</t>
   </si>
   <si>
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>151,065,305.00</t>
-  </si>
-  <si>
-    <t>579,199,272.00</t>
-  </si>
-  <si>
-    <t>26.08</t>
-  </si>
-  <si>
-    <t>13.52</t>
-  </si>
-  <si>
-    <t>12.41</t>
-  </si>
-  <si>
-    <t>21.87</t>
+    <t>155,735,557.00</t>
+  </si>
+  <si>
+    <t>597,357,466.00</t>
+  </si>
+  <si>
+    <t>26.07</t>
+  </si>
+  <si>
+    <t>13.41</t>
+  </si>
+  <si>
+    <t>12.33</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>134,635,427.00</t>
-  </si>
-  <si>
-    <t>615,572,081.00</t>
-  </si>
-  <si>
-    <t>13.84</t>
-  </si>
-  <si>
-    <t>14.89</t>
+    <t>135,080,180.00</t>
+  </si>
+  <si>
+    <t>640,094,352.00</t>
+  </si>
+  <si>
+    <t>13.54</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>110,136,941.00</t>
-  </si>
-  <si>
-    <t>589,309,709.00</t>
-  </si>
-  <si>
-    <t>18.69</t>
-  </si>
-  <si>
-    <t>10.78</t>
-  </si>
-  <si>
-    <t>10.75</t>
+    <t>110,709,579.00</t>
+  </si>
+  <si>
+    <t>607,293,514.00</t>
+  </si>
+  <si>
+    <t>18.23</t>
+  </si>
+  <si>
+    <t>10.53</t>
+  </si>
+  <si>
+    <t>10.74</t>
   </si>
   <si>
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>146,746,736.00</t>
-  </si>
-  <si>
-    <t>579,766,047.00</t>
-  </si>
-  <si>
-    <t>25.31</t>
-  </si>
-  <si>
-    <t>14.35</t>
-  </si>
-  <si>
-    <t>16.46</t>
+    <t>153,711,941.00</t>
+  </si>
+  <si>
+    <t>603,978,331.00</t>
+  </si>
+  <si>
+    <t>25.45</t>
+  </si>
+  <si>
+    <t>14.64</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>24.61</t>
   </si>
   <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>146,067,991.00</t>
-  </si>
-  <si>
-    <t>594,923,093.00</t>
-  </si>
-  <si>
-    <t>24.55</t>
-  </si>
-  <si>
-    <t>14.29</t>
-  </si>
-  <si>
-    <t>15.85</t>
+    <t>148,661,425.00</t>
+  </si>
+  <si>
+    <t>618,408,376.00</t>
+  </si>
+  <si>
+    <t>24.04</t>
+  </si>
+  <si>
+    <t>14.24</t>
+  </si>
+  <si>
+    <t>15.41</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>121,060,527.00</t>
-  </si>
-  <si>
-    <t>597,347,283.00</t>
-  </si>
-  <si>
-    <t>20.27</t>
-  </si>
-  <si>
-    <t>13.20</t>
-  </si>
-  <si>
-    <t>13.80</t>
+    <t>122,340,126.00</t>
+  </si>
+  <si>
+    <t>619,756,438.00</t>
+  </si>
+  <si>
+    <t>19.74</t>
+  </si>
+  <si>
+    <t>12.90</t>
+  </si>
+  <si>
+    <t>13.56</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>125,642,039.00</t>
-  </si>
-  <si>
-    <t>582,804,902.00</t>
-  </si>
-  <si>
-    <t>21.56</t>
-  </si>
-  <si>
-    <t>14.38</t>
-  </si>
-  <si>
-    <t>13.57</t>
+    <t>133,716,996.00</t>
+  </si>
+  <si>
+    <t>605,720,397.00</t>
+  </si>
+  <si>
+    <t>22.08</t>
+  </si>
+  <si>
+    <t>13.92</t>
+  </si>
+  <si>
+    <t>13.22</t>
   </si>
   <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>129,742,447.00</t>
-  </si>
-  <si>
-    <t>570,450,283.00</t>
-  </si>
-  <si>
-    <t>22.74</t>
-  </si>
-  <si>
-    <t>11.52</t>
-  </si>
-  <si>
-    <t>13.33</t>
+    <t>130,189,427.00</t>
+  </si>
+  <si>
+    <t>590,006,886.00</t>
+  </si>
+  <si>
+    <t>11.36</t>
+  </si>
+  <si>
+    <t>13.09</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>148,003,578.00</t>
-  </si>
-  <si>
-    <t>576,420,698.00</t>
-  </si>
-  <si>
-    <t>25.68</t>
-  </si>
-  <si>
-    <t>13.78</t>
-  </si>
-  <si>
-    <t>11.06</t>
+    <t>148,498,860.00</t>
+  </si>
+  <si>
+    <t>603,493,190.00</t>
+  </si>
+  <si>
+    <t>13.26</t>
+  </si>
+  <si>
+    <t>10.77</t>
   </si>
 </sst>
 </file>
@@ -1161,20 +1158,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1225,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1237,13 +1220,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>33.354999999999997</v>
+        <v>34.279000000000003</v>
       </c>
       <c r="I2">
-        <v>765</v>
+        <v>794</v>
       </c>
       <c r="J2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1263,7 +1246,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1275,13 +1258,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>30.991</v>
+        <v>31.416</v>
       </c>
       <c r="I3">
-        <v>796</v>
+        <v>825</v>
       </c>
       <c r="J3">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1301,7 +1284,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1313,13 +1296,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>30.26</v>
+        <v>30.756</v>
       </c>
       <c r="I4">
-        <v>794</v>
+        <v>823</v>
       </c>
       <c r="J4">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1330,7 +1313,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1339,36 +1322,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>18.739999999999998</v>
+        <v>18.934000000000001</v>
       </c>
       <c r="I5">
-        <v>768</v>
+        <v>797</v>
       </c>
       <c r="J5">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1377,36 +1360,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>34.418999999999997</v>
+        <v>34.978000000000002</v>
       </c>
       <c r="I6">
-        <v>794</v>
+        <v>823</v>
       </c>
       <c r="J6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1415,36 +1398,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7">
-        <v>32.862000000000002</v>
+        <v>33.256</v>
       </c>
       <c r="I7">
-        <v>798</v>
+        <v>827</v>
       </c>
       <c r="J7">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1453,31 +1436,31 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>57.741</v>
+        <v>58.692999999999998</v>
       </c>
       <c r="I8">
-        <v>799</v>
+        <v>828</v>
       </c>
       <c r="J8">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1491,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
@@ -1503,13 +1486,13 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>34.546999999999997</v>
+        <v>35.366999999999997</v>
       </c>
       <c r="I9">
-        <v>800</v>
+        <v>829</v>
       </c>
       <c r="J9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
         <v>60</v>
@@ -1529,7 +1512,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -1541,13 +1524,13 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>43.19</v>
+        <v>44.231999999999999</v>
       </c>
       <c r="I10">
-        <v>796</v>
+        <v>825</v>
       </c>
       <c r="J10">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
         <v>66</v>
@@ -1558,7 +1541,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1567,36 +1550,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11">
-        <v>40.686999999999998</v>
+        <v>42.728999999999999</v>
       </c>
       <c r="I11">
-        <v>795</v>
+        <v>824</v>
       </c>
       <c r="J11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1605,36 +1588,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12">
-        <v>37.368000000000002</v>
+        <v>38.148000000000003</v>
       </c>
       <c r="I12">
-        <v>797</v>
+        <v>826</v>
       </c>
       <c r="J12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1643,36 +1626,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13">
-        <v>37.497</v>
+        <v>38.5</v>
       </c>
       <c r="I13">
-        <v>803</v>
+        <v>832</v>
       </c>
       <c r="J13">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1681,25 +1664,25 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>44.610999999999997</v>
+        <v>45.134999999999998</v>
       </c>
       <c r="I14">
-        <v>803</v>
+        <v>833</v>
       </c>
       <c r="J14">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K14" t="s">
         <v>90</v>
@@ -1719,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
         <v>93</v>
@@ -1728,22 +1711,22 @@
         <v>94</v>
       </c>
       <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15">
+        <v>61.728000000000002</v>
+      </c>
+      <c r="I15">
+        <v>826</v>
+      </c>
+      <c r="J15">
+        <v>89</v>
+      </c>
+      <c r="K15" t="s">
         <v>95</v>
       </c>
-      <c r="H15">
-        <v>61.04</v>
-      </c>
-      <c r="I15">
-        <v>796</v>
-      </c>
-      <c r="J15">
-        <v>88</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>96</v>
-      </c>
-      <c r="L15" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
